--- a/FuseLinks/Trifasico_RF_2.xlsx
+++ b/FuseLinks/Trifasico_RF_2.xlsx
@@ -937,68 +937,56 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.65959</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.17085</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N6" t="n">
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>2.10133</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R6" t="n">
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T6" t="n">
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>1</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V6" t="n">
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
@@ -2058,63 +2046,55 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95219</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97817</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.596143</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7811630000000001</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N18" t="n">
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.785679</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R18" t="n">
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T18" t="n">
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V18" t="n">
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -3162,63 +3142,55 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.43168</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.50575</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.425736</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0.557068</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N30" t="n">
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0.568864</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R30" t="n">
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T30" t="n">
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V30" t="n">
+        <v>1</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -4238,55 +4210,55 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.88204</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.83638</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>3.87308</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3.89149</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>3.85444</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>3.84561</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>3.43653</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>3.36817</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>3.42694</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
         <v>2</v>
@@ -5210,55 +5182,55 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.15363</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>2.1278</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.16291</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
         <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>2.16862</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>2.13333</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
         <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>2.14243</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
         <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>1.99762</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
         <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.95259</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>1.98625</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
@@ -6182,55 +6154,55 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.97362</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1.94879</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.98217</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>1.98779</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>1.95422</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
         <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>1.9626</v>
+        <v>2</v>
       </c>
       <c r="Q66" t="n">
         <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>1.83138</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>1.78898</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>1.81982</v>
+        <v>2</v>
       </c>
       <c r="W66" t="n">
         <v>2</v>
@@ -7225,74 +7197,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F78" t="n">
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H78" t="n">
+        <v>3</v>
       </c>
       <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J78" t="n">
+        <v>3</v>
       </c>
       <c r="K78" t="n">
         <v>3</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L78" t="n">
+        <v>3</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N78" t="n">
+        <v>3</v>
       </c>
       <c r="O78" t="n">
         <v>3</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P78" t="n">
+        <v>3</v>
       </c>
       <c r="Q78" t="n">
         <v>3</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R78" t="n">
+        <v>3</v>
       </c>
       <c r="S78" t="n">
         <v>3</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T78" t="n">
+        <v>3</v>
       </c>
       <c r="U78" t="n">
         <v>3</v>
       </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V78" t="n">
+        <v>3</v>
       </c>
       <c r="W78" t="n">
         <v>3</v>
@@ -8342,55 +8296,55 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.5466</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
       </c>
       <c r="H90" t="n">
-        <v>0.532</v>
+        <v>5</v>
       </c>
       <c r="I90" t="n">
         <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>0.555556</v>
+        <v>5</v>
       </c>
       <c r="K90" t="n">
         <v>5</v>
       </c>
       <c r="L90" t="n">
-        <v>0.557686</v>
+        <v>5</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="n">
-        <v>0.533961</v>
+        <v>5</v>
       </c>
       <c r="O90" t="n">
         <v>5</v>
       </c>
       <c r="P90" t="n">
-        <v>0.5425219999999999</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="n">
         <v>5</v>
       </c>
       <c r="R90" t="n">
-        <v>0.530698</v>
+        <v>5</v>
       </c>
       <c r="S90" t="n">
         <v>5</v>
       </c>
       <c r="T90" t="n">
-        <v>0.5069</v>
+        <v>5</v>
       </c>
       <c r="U90" t="n">
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>0.518916</v>
+        <v>5</v>
       </c>
       <c r="W90" t="n">
         <v>5</v>
@@ -9314,55 +9268,55 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.4451659</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
       </c>
       <c r="H102" t="n">
-        <v>0.4323572</v>
+        <v>5</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4527287</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
         <v>5</v>
       </c>
       <c r="L102" t="n">
-        <v>0.4547134</v>
+        <v>5</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="n">
-        <v>0.434173</v>
+        <v>5</v>
       </c>
       <c r="O102" t="n">
         <v>5</v>
       </c>
       <c r="P102" t="n">
-        <v>0.441377</v>
+        <v>5</v>
       </c>
       <c r="Q102" t="n">
         <v>5</v>
       </c>
       <c r="R102" t="n">
-        <v>0.4351632</v>
+        <v>5</v>
       </c>
       <c r="S102" t="n">
         <v>5</v>
       </c>
       <c r="T102" t="n">
-        <v>0.4147071</v>
+        <v>5</v>
       </c>
       <c r="U102" t="n">
         <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4244075</v>
+        <v>5</v>
       </c>
       <c r="W102" t="n">
         <v>5</v>
@@ -10286,55 +10240,55 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.2181462</v>
+        <v>6</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2143228</v>
+        <v>6</v>
       </c>
       <c r="I114" t="n">
         <v>6</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2200518</v>
+        <v>6</v>
       </c>
       <c r="K114" t="n">
         <v>6</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2207439</v>
+        <v>6</v>
       </c>
       <c r="M114" t="n">
         <v>6</v>
       </c>
       <c r="N114" t="n">
-        <v>0.2149713</v>
+        <v>6</v>
       </c>
       <c r="O114" t="n">
         <v>6</v>
       </c>
       <c r="P114" t="n">
-        <v>0.2168087</v>
+        <v>6</v>
       </c>
       <c r="Q114" t="n">
         <v>6</v>
       </c>
       <c r="R114" t="n">
-        <v>0.2170977</v>
+        <v>6</v>
       </c>
       <c r="S114" t="n">
         <v>6</v>
       </c>
       <c r="T114" t="n">
-        <v>0.2112663</v>
+        <v>6</v>
       </c>
       <c r="U114" t="n">
         <v>6</v>
       </c>
       <c r="V114" t="n">
-        <v>0.2136334</v>
+        <v>6</v>
       </c>
       <c r="W114" t="n">
         <v>6</v>
@@ -11258,55 +11212,55 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.3973399</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
         <v>10</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3855982</v>
+        <v>10</v>
       </c>
       <c r="I126" t="n">
         <v>10</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4021748</v>
+        <v>10</v>
       </c>
       <c r="K126" t="n">
         <v>10</v>
       </c>
       <c r="L126" t="n">
-        <v>0.4048233</v>
+        <v>10</v>
       </c>
       <c r="M126" t="n">
         <v>10</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3879161</v>
+        <v>10</v>
       </c>
       <c r="O126" t="n">
         <v>10</v>
       </c>
       <c r="P126" t="n">
-        <v>0.3923949</v>
+        <v>10</v>
       </c>
       <c r="Q126" t="n">
         <v>10</v>
       </c>
       <c r="R126" t="n">
-        <v>0.3972521</v>
+        <v>10</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
       </c>
       <c r="T126" t="n">
-        <v>0.380784</v>
+        <v>10</v>
       </c>
       <c r="U126" t="n">
         <v>10</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3861909</v>
+        <v>10</v>
       </c>
       <c r="W126" t="n">
         <v>10</v>
@@ -12230,55 +12184,55 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.3632385</v>
+        <v>10</v>
       </c>
       <c r="G138" t="n">
         <v>10</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3524639</v>
+        <v>10</v>
       </c>
       <c r="I138" t="n">
         <v>10</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3672096</v>
+        <v>10</v>
       </c>
       <c r="K138" t="n">
         <v>10</v>
       </c>
       <c r="L138" t="n">
-        <v>0.3697928</v>
+        <v>10</v>
       </c>
       <c r="M138" t="n">
         <v>10</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3547299</v>
+        <v>10</v>
       </c>
       <c r="O138" t="n">
         <v>10</v>
       </c>
       <c r="P138" t="n">
-        <v>0.3584099</v>
+        <v>10</v>
       </c>
       <c r="Q138" t="n">
         <v>10</v>
       </c>
       <c r="R138" t="n">
-        <v>0.3638895</v>
+        <v>10</v>
       </c>
       <c r="S138" t="n">
         <v>10</v>
       </c>
       <c r="T138" t="n">
-        <v>0.3491764</v>
+        <v>10</v>
       </c>
       <c r="U138" t="n">
         <v>10</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3536017</v>
+        <v>10</v>
       </c>
       <c r="W138" t="n">
         <v>10</v>
@@ -13202,55 +13156,55 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.5511236</v>
+        <v>12</v>
       </c>
       <c r="G150" t="n">
         <v>12</v>
       </c>
       <c r="H150" t="n">
-        <v>0.5266041</v>
+        <v>12</v>
       </c>
       <c r="I150" t="n">
         <v>12</v>
       </c>
       <c r="J150" t="n">
-        <v>0.5593964</v>
+        <v>12</v>
       </c>
       <c r="K150" t="n">
         <v>12</v>
       </c>
       <c r="L150" t="n">
-        <v>0.5657533</v>
+        <v>12</v>
       </c>
       <c r="M150" t="n">
         <v>12</v>
       </c>
       <c r="N150" t="n">
-        <v>0.5319737</v>
+        <v>12</v>
       </c>
       <c r="O150" t="n">
         <v>12</v>
       </c>
       <c r="P150" t="n">
-        <v>0.5394656</v>
+        <v>12</v>
       </c>
       <c r="Q150" t="n">
         <v>12</v>
       </c>
       <c r="R150" t="n">
-        <v>0.5537715</v>
+        <v>12</v>
       </c>
       <c r="S150" t="n">
         <v>12</v>
       </c>
       <c r="T150" t="n">
-        <v>0.5211632</v>
+        <v>12</v>
       </c>
       <c r="U150" t="n">
         <v>12</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5300454999999999</v>
+        <v>12</v>
       </c>
       <c r="W150" t="n">
         <v>12</v>
@@ -14174,55 +14128,55 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.8224329</v>
+        <v>15</v>
       </c>
       <c r="G162" t="n">
         <v>15</v>
       </c>
       <c r="H162" t="n">
-        <v>0.7692682</v>
+        <v>15</v>
       </c>
       <c r="I162" t="n">
         <v>15</v>
       </c>
       <c r="J162" t="n">
-        <v>0.8372955</v>
+        <v>15</v>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8526118</v>
+        <v>15</v>
       </c>
       <c r="M162" t="n">
         <v>15</v>
       </c>
       <c r="N162" t="n">
-        <v>0.7817329</v>
+        <v>15</v>
       </c>
       <c r="O162" t="n">
         <v>15</v>
       </c>
       <c r="P162" t="n">
-        <v>0.7948698</v>
+        <v>15</v>
       </c>
       <c r="Q162" t="n">
         <v>15</v>
       </c>
       <c r="R162" t="n">
-        <v>0.8312843</v>
+        <v>15</v>
       </c>
       <c r="S162" t="n">
         <v>15</v>
       </c>
       <c r="T162" t="n">
-        <v>0.7633329</v>
+        <v>15</v>
       </c>
       <c r="U162" t="n">
         <v>15</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7788211</v>
+        <v>15</v>
       </c>
       <c r="W162" t="n">
         <v>15</v>
@@ -16046,74 +16000,56 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L13" t="n">
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N13" t="n">
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P13" t="n">
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R13" t="n">
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T13" t="n">
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V13" t="n">
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -17234,74 +17170,56 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J25" t="n">
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L25" t="n">
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N25" t="n">
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P25" t="n">
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R25" t="n">
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T25" t="n">
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V25" t="n">
+        <v>1</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -18422,74 +18340,56 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F37" t="n">
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H37" t="n">
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J37" t="n">
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L37" t="n">
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N37" t="n">
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P37" t="n">
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R37" t="n">
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T37" t="n">
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>1</v>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V37" t="n">
+        <v>1</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -19413,55 +19313,55 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.88245</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.83646</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.87341</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.89196</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>3.85466</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
       <c r="P49" t="n">
-        <v>3.84575</v>
+        <v>2</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>3.43605</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>3.36793</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>3.42673</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
         <v>2</v>
@@ -20385,55 +20285,55 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.15375</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>2.12782</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.163</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>2.16875</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>2.13338</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>2.14246</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
         <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1.99742</v>
+        <v>2</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.95249</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>1.98616</v>
+        <v>2</v>
       </c>
       <c r="W61" t="n">
         <v>2</v>
@@ -21357,55 +21257,55 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.97373</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>1.9488</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.98226</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>1.98791</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>1.95427</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
         <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>1.96263</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.8312</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>1.78889</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
         <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>1.81974</v>
+        <v>2</v>
       </c>
       <c r="W73" t="n">
         <v>2</v>
@@ -22526,74 +22426,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F85" t="n">
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H85" t="n">
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J85" t="n">
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>3</v>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L85" t="n">
+        <v>3</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N85" t="n">
+        <v>3</v>
       </c>
       <c r="O85" t="n">
         <v>3</v>
       </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P85" t="n">
+        <v>3</v>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R85" t="n">
+        <v>3</v>
       </c>
       <c r="S85" t="n">
         <v>3</v>
       </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T85" t="n">
+        <v>3</v>
       </c>
       <c r="U85" t="n">
         <v>3</v>
       </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V85" t="n">
+        <v>3</v>
       </c>
       <c r="W85" t="n">
         <v>3</v>
@@ -23517,55 +23399,55 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.546609</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
       </c>
       <c r="H97" t="n">
-        <v>0.531998</v>
+        <v>5</v>
       </c>
       <c r="I97" t="n">
         <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>0.555561</v>
+        <v>5</v>
       </c>
       <c r="K97" t="n">
         <v>5</v>
       </c>
       <c r="L97" t="n">
-        <v>0.557697</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="n">
-        <v>0.533963</v>
+        <v>5</v>
       </c>
       <c r="O97" t="n">
         <v>5</v>
       </c>
       <c r="P97" t="n">
-        <v>0.54252</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="n">
         <v>5</v>
       </c>
       <c r="R97" t="n">
-        <v>0.530662</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>5</v>
       </c>
       <c r="T97" t="n">
-        <v>0.506881</v>
+        <v>5</v>
       </c>
       <c r="U97" t="n">
         <v>5</v>
       </c>
       <c r="V97" t="n">
-        <v>0.518899</v>
+        <v>5</v>
       </c>
       <c r="W97" t="n">
         <v>5</v>
@@ -24489,55 +24371,55 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.4451715</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
       </c>
       <c r="H109" t="n">
-        <v>0.432355</v>
+        <v>5</v>
       </c>
       <c r="I109" t="n">
         <v>5</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4527314</v>
+        <v>5</v>
       </c>
       <c r="K109" t="n">
         <v>5</v>
       </c>
       <c r="L109" t="n">
-        <v>0.4547199</v>
+        <v>5</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4341742</v>
+        <v>5</v>
       </c>
       <c r="O109" t="n">
         <v>5</v>
       </c>
       <c r="P109" t="n">
-        <v>0.4413753</v>
+        <v>5</v>
       </c>
       <c r="Q109" t="n">
         <v>5</v>
       </c>
       <c r="R109" t="n">
-        <v>0.4351366</v>
+        <v>5</v>
       </c>
       <c r="S109" t="n">
         <v>5</v>
       </c>
       <c r="T109" t="n">
-        <v>0.4146938</v>
+        <v>5</v>
       </c>
       <c r="U109" t="n">
         <v>5</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4243948</v>
+        <v>5</v>
       </c>
       <c r="W109" t="n">
         <v>5</v>
@@ -25461,55 +25343,55 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.2181468</v>
+        <v>6</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
       <c r="H121" t="n">
-        <v>0.2143223</v>
+        <v>6</v>
       </c>
       <c r="I121" t="n">
         <v>6</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2200519</v>
+        <v>6</v>
       </c>
       <c r="K121" t="n">
         <v>6</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2207447</v>
+        <v>6</v>
       </c>
       <c r="M121" t="n">
         <v>6</v>
       </c>
       <c r="N121" t="n">
-        <v>0.2149713</v>
+        <v>6</v>
       </c>
       <c r="O121" t="n">
         <v>6</v>
       </c>
       <c r="P121" t="n">
-        <v>0.2168082</v>
+        <v>6</v>
       </c>
       <c r="Q121" t="n">
         <v>6</v>
       </c>
       <c r="R121" t="n">
-        <v>0.2170926</v>
+        <v>6</v>
       </c>
       <c r="S121" t="n">
         <v>6</v>
       </c>
       <c r="T121" t="n">
-        <v>0.2112637</v>
+        <v>6</v>
       </c>
       <c r="U121" t="n">
         <v>6</v>
       </c>
       <c r="V121" t="n">
-        <v>0.2136309</v>
+        <v>6</v>
       </c>
       <c r="W121" t="n">
         <v>6</v>
@@ -26433,55 +26315,55 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.3973406</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3855969</v>
+        <v>10</v>
       </c>
       <c r="I133" t="n">
         <v>10</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4021746</v>
+        <v>10</v>
       </c>
       <c r="K133" t="n">
         <v>10</v>
       </c>
       <c r="L133" t="n">
-        <v>0.4048242</v>
+        <v>10</v>
       </c>
       <c r="M133" t="n">
         <v>10</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3879158</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
         <v>10</v>
       </c>
       <c r="P133" t="n">
-        <v>0.3923937</v>
+        <v>10</v>
       </c>
       <c r="Q133" t="n">
         <v>10</v>
       </c>
       <c r="R133" t="n">
-        <v>0.397242</v>
+        <v>10</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
       </c>
       <c r="T133" t="n">
-        <v>0.380779</v>
+        <v>10</v>
       </c>
       <c r="U133" t="n">
         <v>10</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3861861</v>
+        <v>10</v>
       </c>
       <c r="W133" t="n">
         <v>10</v>
@@ -27405,55 +27287,55 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.3632389</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3524629</v>
+        <v>10</v>
       </c>
       <c r="I145" t="n">
         <v>10</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3672093</v>
+        <v>10</v>
       </c>
       <c r="K145" t="n">
         <v>10</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3697933</v>
+        <v>10</v>
       </c>
       <c r="M145" t="n">
         <v>10</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3547295</v>
+        <v>10</v>
       </c>
       <c r="O145" t="n">
         <v>10</v>
       </c>
       <c r="P145" t="n">
-        <v>0.3584089</v>
+        <v>10</v>
       </c>
       <c r="Q145" t="n">
         <v>10</v>
       </c>
       <c r="R145" t="n">
-        <v>0.3638817</v>
+        <v>10</v>
       </c>
       <c r="S145" t="n">
         <v>10</v>
       </c>
       <c r="T145" t="n">
-        <v>0.3491726</v>
+        <v>10</v>
       </c>
       <c r="U145" t="n">
         <v>10</v>
       </c>
       <c r="V145" t="n">
-        <v>0.353598</v>
+        <v>10</v>
       </c>
       <c r="W145" t="n">
         <v>10</v>
@@ -28377,55 +28259,55 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.5511242</v>
+        <v>12</v>
       </c>
       <c r="G157" t="n">
         <v>12</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5266021</v>
+        <v>12</v>
       </c>
       <c r="I157" t="n">
         <v>12</v>
       </c>
       <c r="J157" t="n">
-        <v>0.5593957000000001</v>
+        <v>12</v>
       </c>
       <c r="K157" t="n">
         <v>12</v>
       </c>
       <c r="L157" t="n">
-        <v>0.565754</v>
+        <v>12</v>
       </c>
       <c r="M157" t="n">
         <v>12</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5319729</v>
+        <v>12</v>
       </c>
       <c r="O157" t="n">
         <v>12</v>
       </c>
       <c r="P157" t="n">
-        <v>0.5394636</v>
+        <v>12</v>
       </c>
       <c r="Q157" t="n">
         <v>12</v>
       </c>
       <c r="R157" t="n">
-        <v>0.5537561</v>
+        <v>12</v>
       </c>
       <c r="S157" t="n">
         <v>12</v>
       </c>
       <c r="T157" t="n">
-        <v>0.521156</v>
+        <v>12</v>
       </c>
       <c r="U157" t="n">
         <v>12</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5300385</v>
+        <v>12</v>
       </c>
       <c r="W157" t="n">
         <v>12</v>
@@ -29349,55 +29231,55 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.8224332</v>
+        <v>15</v>
       </c>
       <c r="G169" t="n">
         <v>15</v>
       </c>
       <c r="H169" t="n">
-        <v>0.769265</v>
+        <v>15</v>
       </c>
       <c r="I169" t="n">
         <v>15</v>
       </c>
       <c r="J169" t="n">
-        <v>0.8372938</v>
+        <v>15</v>
       </c>
       <c r="K169" t="n">
         <v>15</v>
       </c>
       <c r="L169" t="n">
-        <v>0.8526123</v>
+        <v>15</v>
       </c>
       <c r="M169" t="n">
         <v>15</v>
       </c>
       <c r="N169" t="n">
-        <v>0.7817314</v>
+        <v>15</v>
       </c>
       <c r="O169" t="n">
         <v>15</v>
       </c>
       <c r="P169" t="n">
-        <v>0.7948664</v>
+        <v>15</v>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
       </c>
       <c r="R169" t="n">
-        <v>0.8312583</v>
+        <v>15</v>
       </c>
       <c r="S169" t="n">
         <v>15</v>
       </c>
       <c r="T169" t="n">
-        <v>0.7633213</v>
+        <v>15</v>
       </c>
       <c r="U169" t="n">
         <v>15</v>
       </c>
       <c r="V169" t="n">
-        <v>0.7788096</v>
+        <v>15</v>
       </c>
       <c r="W169" t="n">
         <v>15</v>

--- a/FuseLinks/Trifasico_RF_2.xlsx
+++ b/FuseLinks/Trifasico_RF_2.xlsx
@@ -937,56 +937,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="T6" t="n">
-        <v>1</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U6" t="n">
         <v>1</v>
       </c>
-      <c r="V6" t="n">
-        <v>1</v>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W6" t="n">
         <v>1</v>
@@ -2045,56 +2063,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="n">
-        <v>1</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="n">
-        <v>1</v>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="T18" t="n">
-        <v>1</v>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="n">
-        <v>1</v>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -3141,56 +3177,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="n">
-        <v>1</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="n">
-        <v>1</v>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
-      <c r="R30" t="n">
-        <v>1</v>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
-      <c r="T30" t="n">
-        <v>1</v>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
-      <c r="V30" t="n">
-        <v>1</v>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -4209,56 +4263,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>2</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="n">
-        <v>2</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
-      <c r="J42" t="n">
-        <v>2</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
-      <c r="L42" t="n">
-        <v>2</v>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
-      <c r="N42" t="n">
-        <v>2</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O42" t="n">
         <v>2</v>
       </c>
-      <c r="P42" t="n">
-        <v>2</v>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q42" t="n">
         <v>2</v>
       </c>
-      <c r="R42" t="n">
-        <v>2</v>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S42" t="n">
         <v>2</v>
       </c>
-      <c r="T42" t="n">
-        <v>2</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
-      <c r="V42" t="n">
-        <v>2</v>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W42" t="n">
         <v>2</v>
@@ -5181,56 +5253,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>2</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="n">
-        <v>2</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="J54" t="n">
-        <v>2</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K54" t="n">
         <v>2</v>
       </c>
-      <c r="L54" t="n">
-        <v>2</v>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
-      <c r="N54" t="n">
-        <v>2</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O54" t="n">
         <v>2</v>
       </c>
-      <c r="P54" t="n">
-        <v>2</v>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q54" t="n">
         <v>2</v>
       </c>
-      <c r="R54" t="n">
-        <v>2</v>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S54" t="n">
         <v>2</v>
       </c>
-      <c r="T54" t="n">
-        <v>2</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
-      <c r="V54" t="n">
-        <v>2</v>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W54" t="n">
         <v>2</v>
@@ -6153,56 +6243,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>2</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="n">
-        <v>2</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="J66" t="n">
-        <v>2</v>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K66" t="n">
         <v>2</v>
       </c>
-      <c r="L66" t="n">
-        <v>2</v>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
-      <c r="N66" t="n">
-        <v>2</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O66" t="n">
         <v>2</v>
       </c>
-      <c r="P66" t="n">
-        <v>2</v>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q66" t="n">
         <v>2</v>
       </c>
-      <c r="R66" t="n">
-        <v>2</v>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S66" t="n">
         <v>2</v>
       </c>
-      <c r="T66" t="n">
-        <v>2</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U66" t="n">
         <v>2</v>
       </c>
-      <c r="V66" t="n">
-        <v>2</v>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W66" t="n">
         <v>2</v>
@@ -7197,56 +7305,74 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>3</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v>3</v>
       </c>
-      <c r="H78" t="n">
-        <v>3</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I78" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="n">
-        <v>3</v>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K78" t="n">
         <v>3</v>
       </c>
-      <c r="L78" t="n">
-        <v>3</v>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
-      <c r="N78" t="n">
-        <v>3</v>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O78" t="n">
         <v>3</v>
       </c>
-      <c r="P78" t="n">
-        <v>3</v>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q78" t="n">
         <v>3</v>
       </c>
-      <c r="R78" t="n">
-        <v>3</v>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S78" t="n">
         <v>3</v>
       </c>
-      <c r="T78" t="n">
-        <v>3</v>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U78" t="n">
         <v>3</v>
       </c>
-      <c r="V78" t="n">
-        <v>3</v>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W78" t="n">
         <v>3</v>
@@ -8295,56 +8421,74 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>5</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v>5</v>
       </c>
-      <c r="H90" t="n">
-        <v>5</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I90" t="n">
         <v>5</v>
       </c>
-      <c r="J90" t="n">
-        <v>5</v>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K90" t="n">
         <v>5</v>
       </c>
-      <c r="L90" t="n">
-        <v>5</v>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
-      <c r="N90" t="n">
-        <v>5</v>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O90" t="n">
         <v>5</v>
       </c>
-      <c r="P90" t="n">
-        <v>5</v>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q90" t="n">
         <v>5</v>
       </c>
-      <c r="R90" t="n">
-        <v>5</v>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S90" t="n">
         <v>5</v>
       </c>
-      <c r="T90" t="n">
-        <v>5</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U90" t="n">
         <v>5</v>
       </c>
-      <c r="V90" t="n">
-        <v>5</v>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W90" t="n">
         <v>5</v>
@@ -9267,56 +9411,74 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F102" t="n">
-        <v>5</v>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v>5</v>
       </c>
-      <c r="H102" t="n">
-        <v>5</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I102" t="n">
         <v>5</v>
       </c>
-      <c r="J102" t="n">
-        <v>5</v>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K102" t="n">
         <v>5</v>
       </c>
-      <c r="L102" t="n">
-        <v>5</v>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
-      <c r="N102" t="n">
-        <v>5</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O102" t="n">
         <v>5</v>
       </c>
-      <c r="P102" t="n">
-        <v>5</v>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q102" t="n">
         <v>5</v>
       </c>
-      <c r="R102" t="n">
-        <v>5</v>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S102" t="n">
         <v>5</v>
       </c>
-      <c r="T102" t="n">
-        <v>5</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U102" t="n">
         <v>5</v>
       </c>
-      <c r="V102" t="n">
-        <v>5</v>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W102" t="n">
         <v>5</v>
@@ -10239,56 +10401,74 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>6</v>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G114" t="n">
         <v>6</v>
       </c>
-      <c r="H114" t="n">
-        <v>6</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I114" t="n">
         <v>6</v>
       </c>
-      <c r="J114" t="n">
-        <v>6</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K114" t="n">
         <v>6</v>
       </c>
-      <c r="L114" t="n">
-        <v>6</v>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M114" t="n">
         <v>6</v>
       </c>
-      <c r="N114" t="n">
-        <v>6</v>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O114" t="n">
         <v>6</v>
       </c>
-      <c r="P114" t="n">
-        <v>6</v>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q114" t="n">
         <v>6</v>
       </c>
-      <c r="R114" t="n">
-        <v>6</v>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S114" t="n">
         <v>6</v>
       </c>
-      <c r="T114" t="n">
-        <v>6</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U114" t="n">
         <v>6</v>
       </c>
-      <c r="V114" t="n">
-        <v>6</v>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W114" t="n">
         <v>6</v>
@@ -11211,56 +11391,74 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>10</v>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G126" t="n">
         <v>10</v>
       </c>
-      <c r="H126" t="n">
-        <v>10</v>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I126" t="n">
         <v>10</v>
       </c>
-      <c r="J126" t="n">
-        <v>10</v>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K126" t="n">
         <v>10</v>
       </c>
-      <c r="L126" t="n">
-        <v>10</v>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M126" t="n">
         <v>10</v>
       </c>
-      <c r="N126" t="n">
-        <v>10</v>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O126" t="n">
         <v>10</v>
       </c>
-      <c r="P126" t="n">
-        <v>10</v>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q126" t="n">
         <v>10</v>
       </c>
-      <c r="R126" t="n">
-        <v>10</v>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S126" t="n">
         <v>10</v>
       </c>
-      <c r="T126" t="n">
-        <v>10</v>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U126" t="n">
         <v>10</v>
       </c>
-      <c r="V126" t="n">
-        <v>10</v>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W126" t="n">
         <v>10</v>
@@ -12183,56 +12381,74 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>10</v>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v>10</v>
       </c>
-      <c r="H138" t="n">
-        <v>10</v>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I138" t="n">
         <v>10</v>
       </c>
-      <c r="J138" t="n">
-        <v>10</v>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K138" t="n">
         <v>10</v>
       </c>
-      <c r="L138" t="n">
-        <v>10</v>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M138" t="n">
         <v>10</v>
       </c>
-      <c r="N138" t="n">
-        <v>10</v>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O138" t="n">
         <v>10</v>
       </c>
-      <c r="P138" t="n">
-        <v>10</v>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q138" t="n">
         <v>10</v>
       </c>
-      <c r="R138" t="n">
-        <v>10</v>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S138" t="n">
         <v>10</v>
       </c>
-      <c r="T138" t="n">
-        <v>10</v>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U138" t="n">
         <v>10</v>
       </c>
-      <c r="V138" t="n">
-        <v>10</v>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W138" t="n">
         <v>10</v>
@@ -13155,56 +13371,74 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F150" t="n">
-        <v>12</v>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G150" t="n">
         <v>12</v>
       </c>
-      <c r="H150" t="n">
-        <v>12</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I150" t="n">
         <v>12</v>
       </c>
-      <c r="J150" t="n">
-        <v>12</v>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K150" t="n">
         <v>12</v>
       </c>
-      <c r="L150" t="n">
-        <v>12</v>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M150" t="n">
         <v>12</v>
       </c>
-      <c r="N150" t="n">
-        <v>12</v>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O150" t="n">
         <v>12</v>
       </c>
-      <c r="P150" t="n">
-        <v>12</v>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q150" t="n">
         <v>12</v>
       </c>
-      <c r="R150" t="n">
-        <v>12</v>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S150" t="n">
         <v>12</v>
       </c>
-      <c r="T150" t="n">
-        <v>12</v>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U150" t="n">
         <v>12</v>
       </c>
-      <c r="V150" t="n">
-        <v>12</v>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W150" t="n">
         <v>12</v>
@@ -14127,56 +14361,74 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F162" t="n">
-        <v>15</v>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G162" t="n">
         <v>15</v>
       </c>
-      <c r="H162" t="n">
-        <v>15</v>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I162" t="n">
         <v>15</v>
       </c>
-      <c r="J162" t="n">
-        <v>15</v>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K162" t="n">
         <v>15</v>
       </c>
-      <c r="L162" t="n">
-        <v>15</v>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M162" t="n">
         <v>15</v>
       </c>
-      <c r="N162" t="n">
-        <v>15</v>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O162" t="n">
         <v>15</v>
       </c>
-      <c r="P162" t="n">
-        <v>15</v>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q162" t="n">
         <v>15</v>
       </c>
-      <c r="R162" t="n">
-        <v>15</v>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S162" t="n">
         <v>15</v>
       </c>
-      <c r="T162" t="n">
-        <v>15</v>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U162" t="n">
         <v>15</v>
       </c>
-      <c r="V162" t="n">
-        <v>15</v>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W162" t="n">
         <v>15</v>
@@ -16000,56 +16252,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>1</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R13" t="n">
-        <v>1</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v>1</v>
       </c>
-      <c r="T13" t="n">
-        <v>1</v>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
-      <c r="V13" t="n">
-        <v>1</v>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -17170,56 +17440,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>1</v>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R25" t="n">
-        <v>1</v>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
-      <c r="T25" t="n">
-        <v>1</v>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
-      <c r="V25" t="n">
-        <v>1</v>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -18340,56 +18628,74 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>1</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
-      <c r="N37" t="n">
-        <v>1</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
-        <v>1</v>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
-      <c r="R37" t="n">
-        <v>1</v>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
-      <c r="T37" t="n">
-        <v>1</v>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U37" t="n">
         <v>1</v>
       </c>
-      <c r="V37" t="n">
-        <v>1</v>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -19312,56 +19618,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>2</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v>2</v>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
-      <c r="J49" t="n">
-        <v>2</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K49" t="n">
         <v>2</v>
       </c>
-      <c r="L49" t="n">
-        <v>2</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
-      <c r="N49" t="n">
-        <v>2</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O49" t="n">
         <v>2</v>
       </c>
-      <c r="P49" t="n">
-        <v>2</v>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
       </c>
-      <c r="R49" t="n">
-        <v>2</v>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S49" t="n">
         <v>2</v>
       </c>
-      <c r="T49" t="n">
-        <v>2</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U49" t="n">
         <v>2</v>
       </c>
-      <c r="V49" t="n">
-        <v>2</v>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W49" t="n">
         <v>2</v>
@@ -20284,56 +20608,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>2</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="J61" t="n">
-        <v>2</v>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K61" t="n">
         <v>2</v>
       </c>
-      <c r="L61" t="n">
-        <v>2</v>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
-      <c r="N61" t="n">
-        <v>2</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
-      <c r="P61" t="n">
-        <v>2</v>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S61" t="n">
         <v>2</v>
       </c>
-      <c r="T61" t="n">
-        <v>2</v>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U61" t="n">
         <v>2</v>
       </c>
-      <c r="V61" t="n">
-        <v>2</v>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W61" t="n">
         <v>2</v>
@@ -21256,56 +21598,74 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>2</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="J73" t="n">
-        <v>2</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
-      <c r="L73" t="n">
-        <v>2</v>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
-      <c r="N73" t="n">
-        <v>2</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O73" t="n">
         <v>2</v>
       </c>
-      <c r="P73" t="n">
-        <v>2</v>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q73" t="n">
         <v>2</v>
       </c>
-      <c r="R73" t="n">
-        <v>2</v>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S73" t="n">
         <v>2</v>
       </c>
-      <c r="T73" t="n">
-        <v>2</v>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U73" t="n">
         <v>2</v>
       </c>
-      <c r="V73" t="n">
-        <v>2</v>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W73" t="n">
         <v>2</v>
@@ -22426,56 +22786,74 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>3</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="n">
-        <v>3</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="n">
-        <v>3</v>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K85" t="n">
         <v>3</v>
       </c>
-      <c r="L85" t="n">
-        <v>3</v>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
-      <c r="N85" t="n">
-        <v>3</v>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O85" t="n">
         <v>3</v>
       </c>
-      <c r="P85" t="n">
-        <v>3</v>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q85" t="n">
         <v>3</v>
       </c>
-      <c r="R85" t="n">
-        <v>3</v>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S85" t="n">
         <v>3</v>
       </c>
-      <c r="T85" t="n">
-        <v>3</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U85" t="n">
         <v>3</v>
       </c>
-      <c r="V85" t="n">
-        <v>3</v>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W85" t="n">
         <v>3</v>
@@ -23398,56 +23776,74 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>5</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v>5</v>
       </c>
-      <c r="H97" t="n">
-        <v>5</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I97" t="n">
         <v>5</v>
       </c>
-      <c r="J97" t="n">
-        <v>5</v>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K97" t="n">
         <v>5</v>
       </c>
-      <c r="L97" t="n">
-        <v>5</v>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
-      <c r="N97" t="n">
-        <v>5</v>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O97" t="n">
         <v>5</v>
       </c>
-      <c r="P97" t="n">
-        <v>5</v>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q97" t="n">
         <v>5</v>
       </c>
-      <c r="R97" t="n">
-        <v>5</v>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S97" t="n">
         <v>5</v>
       </c>
-      <c r="T97" t="n">
-        <v>5</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U97" t="n">
         <v>5</v>
       </c>
-      <c r="V97" t="n">
-        <v>5</v>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W97" t="n">
         <v>5</v>
@@ -24370,56 +24766,74 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>5</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G109" t="n">
         <v>5</v>
       </c>
-      <c r="H109" t="n">
-        <v>5</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I109" t="n">
         <v>5</v>
       </c>
-      <c r="J109" t="n">
-        <v>5</v>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K109" t="n">
         <v>5</v>
       </c>
-      <c r="L109" t="n">
-        <v>5</v>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
-      <c r="N109" t="n">
-        <v>5</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O109" t="n">
         <v>5</v>
       </c>
-      <c r="P109" t="n">
-        <v>5</v>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q109" t="n">
         <v>5</v>
       </c>
-      <c r="R109" t="n">
-        <v>5</v>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S109" t="n">
         <v>5</v>
       </c>
-      <c r="T109" t="n">
-        <v>5</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U109" t="n">
         <v>5</v>
       </c>
-      <c r="V109" t="n">
-        <v>5</v>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W109" t="n">
         <v>5</v>
@@ -25342,56 +25756,74 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>6</v>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v>6</v>
       </c>
-      <c r="H121" t="n">
-        <v>6</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I121" t="n">
         <v>6</v>
       </c>
-      <c r="J121" t="n">
-        <v>6</v>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K121" t="n">
         <v>6</v>
       </c>
-      <c r="L121" t="n">
-        <v>6</v>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M121" t="n">
         <v>6</v>
       </c>
-      <c r="N121" t="n">
-        <v>6</v>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O121" t="n">
         <v>6</v>
       </c>
-      <c r="P121" t="n">
-        <v>6</v>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q121" t="n">
         <v>6</v>
       </c>
-      <c r="R121" t="n">
-        <v>6</v>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S121" t="n">
         <v>6</v>
       </c>
-      <c r="T121" t="n">
-        <v>6</v>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U121" t="n">
         <v>6</v>
       </c>
-      <c r="V121" t="n">
-        <v>6</v>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W121" t="n">
         <v>6</v>
@@ -26314,56 +26746,74 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>10</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v>10</v>
       </c>
-      <c r="H133" t="n">
-        <v>10</v>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I133" t="n">
         <v>10</v>
       </c>
-      <c r="J133" t="n">
-        <v>10</v>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K133" t="n">
         <v>10</v>
       </c>
-      <c r="L133" t="n">
-        <v>10</v>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M133" t="n">
         <v>10</v>
       </c>
-      <c r="N133" t="n">
-        <v>10</v>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O133" t="n">
         <v>10</v>
       </c>
-      <c r="P133" t="n">
-        <v>10</v>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q133" t="n">
         <v>10</v>
       </c>
-      <c r="R133" t="n">
-        <v>10</v>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S133" t="n">
         <v>10</v>
       </c>
-      <c r="T133" t="n">
-        <v>10</v>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U133" t="n">
         <v>10</v>
       </c>
-      <c r="V133" t="n">
-        <v>10</v>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W133" t="n">
         <v>10</v>
@@ -27286,56 +27736,74 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>10</v>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v>10</v>
       </c>
-      <c r="H145" t="n">
-        <v>10</v>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I145" t="n">
         <v>10</v>
       </c>
-      <c r="J145" t="n">
-        <v>10</v>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K145" t="n">
         <v>10</v>
       </c>
-      <c r="L145" t="n">
-        <v>10</v>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M145" t="n">
         <v>10</v>
       </c>
-      <c r="N145" t="n">
-        <v>10</v>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O145" t="n">
         <v>10</v>
       </c>
-      <c r="P145" t="n">
-        <v>10</v>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q145" t="n">
         <v>10</v>
       </c>
-      <c r="R145" t="n">
-        <v>10</v>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S145" t="n">
         <v>10</v>
       </c>
-      <c r="T145" t="n">
-        <v>10</v>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U145" t="n">
         <v>10</v>
       </c>
-      <c r="V145" t="n">
-        <v>10</v>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W145" t="n">
         <v>10</v>
@@ -28258,56 +28726,74 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>12</v>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G157" t="n">
         <v>12</v>
       </c>
-      <c r="H157" t="n">
-        <v>12</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I157" t="n">
         <v>12</v>
       </c>
-      <c r="J157" t="n">
-        <v>12</v>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K157" t="n">
         <v>12</v>
       </c>
-      <c r="L157" t="n">
-        <v>12</v>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M157" t="n">
         <v>12</v>
       </c>
-      <c r="N157" t="n">
-        <v>12</v>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O157" t="n">
         <v>12</v>
       </c>
-      <c r="P157" t="n">
-        <v>12</v>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q157" t="n">
         <v>12</v>
       </c>
-      <c r="R157" t="n">
-        <v>12</v>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S157" t="n">
         <v>12</v>
       </c>
-      <c r="T157" t="n">
-        <v>12</v>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U157" t="n">
         <v>12</v>
       </c>
-      <c r="V157" t="n">
-        <v>12</v>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W157" t="n">
         <v>12</v>
@@ -29230,56 +29716,74 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>15</v>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G169" t="n">
         <v>15</v>
       </c>
-      <c r="H169" t="n">
-        <v>15</v>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I169" t="n">
         <v>15</v>
       </c>
-      <c r="J169" t="n">
-        <v>15</v>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K169" t="n">
         <v>15</v>
       </c>
-      <c r="L169" t="n">
-        <v>15</v>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M169" t="n">
         <v>15</v>
       </c>
-      <c r="N169" t="n">
-        <v>15</v>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O169" t="n">
         <v>15</v>
       </c>
-      <c r="P169" t="n">
-        <v>15</v>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q169" t="n">
         <v>15</v>
       </c>
-      <c r="R169" t="n">
-        <v>15</v>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S169" t="n">
         <v>15</v>
       </c>
-      <c r="T169" t="n">
-        <v>15</v>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U169" t="n">
         <v>15</v>
       </c>
-      <c r="V169" t="n">
-        <v>15</v>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W169" t="n">
         <v>15</v>

--- a/FuseLinks/Trifasico_RF_2.xlsx
+++ b/FuseLinks/Trifasico_RF_2.xlsx
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -951,23 +951,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.65959</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>14.914</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.17085</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>13.3165</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -975,15 +971,13 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.10133</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>13.4991</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -991,7 +985,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -999,7 +993,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1007,7 +1001,7 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1618,7 +1612,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1626,7 +1620,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1634,7 +1628,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1642,7 +1636,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1650,7 +1644,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1658,7 +1652,7 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1666,7 +1660,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1674,7 +1668,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1682,7 +1676,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2063,37 +2057,29 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F18" t="n">
+        <v>1.95219</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>13.9231</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.97817</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>13.8458</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.596143</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>23.3197</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7811630000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>20.6856</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2101,15 +2087,13 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.785679</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>20.633</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2117,7 +2101,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2125,7 +2109,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2133,7 +2117,7 @@
         </is>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2732,7 +2716,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2740,7 +2724,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2748,7 +2732,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2756,7 +2740,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2764,7 +2748,7 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2772,7 +2756,7 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2780,7 +2764,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2788,7 +2772,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2796,7 +2780,7 @@
         </is>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3177,37 +3161,29 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F30" t="n">
+        <v>1.43168</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.8862</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.50575</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.5463</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.425736</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>27.1104</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.557068</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>24.0352</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3215,15 +3191,13 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.568864</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>23.8116</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3231,7 +3205,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3239,7 +3213,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3247,7 +3221,7 @@
         </is>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3846,7 +3820,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3854,7 +3828,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -3862,7 +3836,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3870,7 +3844,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3878,7 +3852,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3886,7 +3860,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -3894,7 +3868,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3902,7 +3876,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3910,7 +3884,7 @@
         </is>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -4263,77 +4237,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F42" t="n">
+        <v>3.88204</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6361</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.83638</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.722</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.87308</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6528</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.89149</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6185</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.85444</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6878</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.84561</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.7045</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3.43653</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.5486</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.36817</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.7049</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.42694</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>16.5702</v>
       </c>
     </row>
     <row r="43">
@@ -4848,59 +4804,77 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>3.88228</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>15.6356</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.83629</v>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I49" t="n">
-        <v>15.7222</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.87325</v>
+        <v>2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K49" t="n">
-        <v>15.6525</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.8918</v>
+        <v>2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>15.6179</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.85449</v>
+        <v>2</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O49" t="n">
-        <v>15.6878</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3.84558</v>
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q49" t="n">
-        <v>15.7046</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3.43624</v>
+        <v>2</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S49" t="n">
-        <v>16.5492</v>
-      </c>
-      <c r="T49" t="n">
-        <v>3.36812</v>
+        <v>2</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U49" t="n">
-        <v>16.705</v>
-      </c>
-      <c r="V49" t="n">
-        <v>3.42692</v>
+        <v>2</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W49" t="n">
-        <v>16.5703</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -5253,77 +5227,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F54" t="n">
+        <v>2.15363</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.656</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.1278</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7759</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.16291</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.6134</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.16862</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.5874</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.13333</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7501</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.14243</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7077</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.99762</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4155</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.95259</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6515</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.98625</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>21.4743</v>
       </c>
     </row>
     <row r="55">
@@ -5838,59 +5794,77 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F61" t="n">
-        <v>2.1537</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G61" t="n">
-        <v>20.6557</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2.12777</v>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I61" t="n">
-        <v>20.7761</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.16295</v>
+        <v>2</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K61" t="n">
-        <v>20.6132</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.1687</v>
+        <v>2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>20.587</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.13334</v>
+        <v>2</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O61" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="P61" t="n">
-        <v>2.14241</v>
+        <v>2</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q61" t="n">
-        <v>20.7078</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.9975</v>
+        <v>2</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S61" t="n">
-        <v>21.4161</v>
-      </c>
-      <c r="T61" t="n">
-        <v>1.95257</v>
+        <v>2</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U61" t="n">
-        <v>21.6517</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.98624</v>
+        <v>2</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W61" t="n">
-        <v>21.4744</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -6243,77 +6217,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F66" t="n">
+        <v>1.97362</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5403</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.94879</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6719</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.98217</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4956</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.98779</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4664</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.95422</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6429</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.9626</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5984</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.83138</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.3298</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.78898</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.5831</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.81982</v>
       </c>
       <c r="W66" t="n">
-        <v>2</v>
+        <v>22.398</v>
       </c>
     </row>
     <row r="67">
@@ -6828,59 +6784,77 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>1.97369</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G73" t="n">
-        <v>21.5399</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1.94876</v>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I73" t="n">
-        <v>21.672</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.98221</v>
+        <v>2</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K73" t="n">
-        <v>21.4954</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1.98787</v>
+        <v>2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>21.4659</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.95423</v>
+        <v>2</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O73" t="n">
-        <v>21.6428</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1.96258</v>
+        <v>2</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q73" t="n">
-        <v>21.5985</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.83127</v>
+        <v>2</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S73" t="n">
-        <v>22.3304</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.78896</v>
+        <v>2</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U73" t="n">
-        <v>22.5833</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.81981</v>
+        <v>2</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W73" t="n">
-        <v>22.398</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -7311,7 +7285,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>31.596</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -7319,7 +7293,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>31.8613</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -7327,7 +7301,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>31.4352</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -7335,7 +7309,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>31.3996</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -7343,7 +7317,7 @@
         </is>
       </c>
       <c r="O78" t="n">
-        <v>3</v>
+        <v>31.8262</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
@@ -7351,7 +7325,7 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>31.6666</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -7359,7 +7333,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>3</v>
+        <v>32.1923</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7367,7 +7341,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>3</v>
+        <v>32.6823</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7375,7 +7349,7 @@
         </is>
       </c>
       <c r="W78" t="n">
-        <v>3</v>
+        <v>32.3928</v>
       </c>
     </row>
     <row r="79">
@@ -8004,7 +7978,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>31.5957</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -8012,7 +7986,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>31.8615</v>
+        <v>3</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -8020,7 +7994,7 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>31.4351</v>
+        <v>3</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -8028,7 +8002,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>31.3993</v>
+        <v>3</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -8036,7 +8010,7 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>31.8262</v>
+        <v>3</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -8044,7 +8018,7 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>31.6667</v>
+        <v>3</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -8052,7 +8026,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>32.1929</v>
+        <v>3</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -8060,7 +8034,7 @@
         </is>
       </c>
       <c r="U85" t="n">
-        <v>32.6825</v>
+        <v>3</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -8068,7 +8042,7 @@
         </is>
       </c>
       <c r="W85" t="n">
-        <v>32.3929</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -8421,77 +8395,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F90" t="n">
+        <v>0.5466</v>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.1677</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.532</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5882</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.555556</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.9181</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.557686</v>
       </c>
       <c r="M90" t="n">
-        <v>5</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.8596</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.533961</v>
       </c>
       <c r="O90" t="n">
-        <v>5</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5307</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.5425219999999999</v>
       </c>
       <c r="Q90" t="n">
-        <v>5</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.2834</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.530698</v>
       </c>
       <c r="S90" t="n">
-        <v>5</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.6266</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.5069</v>
       </c>
       <c r="U90" t="n">
-        <v>5</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>40.3538</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.518916</v>
       </c>
       <c r="W90" t="n">
-        <v>5</v>
+        <v>39.9803</v>
       </c>
     </row>
     <row r="91">
@@ -9006,59 +8962,77 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>0.546607</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G97" t="n">
-        <v>39.1675</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.531996</v>
+        <v>5</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I97" t="n">
-        <v>39.5883</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.555558</v>
+        <v>5</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K97" t="n">
-        <v>38.918</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.557694</v>
+        <v>5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>38.8594</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.533961</v>
+        <v>5</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O97" t="n">
-        <v>39.5307</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.542517</v>
+        <v>5</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q97" t="n">
-        <v>39.2835</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.530677</v>
+        <v>5</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S97" t="n">
-        <v>39.6272</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0.506896</v>
+        <v>5</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U97" t="n">
-        <v>40.354</v>
-      </c>
-      <c r="V97" t="n">
-        <v>0.518913</v>
+        <v>5</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W97" t="n">
-        <v>39.9803</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -9411,77 +9385,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F102" t="n">
+        <v>0.4451659</v>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.50966</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.4323572</v>
       </c>
       <c r="I102" t="n">
-        <v>5</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.01486</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.4527287</v>
       </c>
       <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.22166</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.4547134</v>
       </c>
       <c r="M102" t="n">
-        <v>5</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.14729</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.434173</v>
       </c>
       <c r="O102" t="n">
-        <v>5</v>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.94186</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.441377</v>
       </c>
       <c r="Q102" t="n">
-        <v>5</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.65678</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.4351632</v>
       </c>
       <c r="S102" t="n">
-        <v>5</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.90225</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.4147071</v>
       </c>
       <c r="U102" t="n">
-        <v>5</v>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.74965</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.4244075</v>
       </c>
       <c r="W102" t="n">
-        <v>5</v>
+        <v>43.34004</v>
       </c>
     </row>
     <row r="103">
@@ -9996,59 +9952,77 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>0.4451704</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G109" t="n">
-        <v>42.50949</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.4323537</v>
+        <v>5</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I109" t="n">
-        <v>43.015</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.4527301</v>
+        <v>5</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K109" t="n">
-        <v>42.22161</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.4547187</v>
+        <v>5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>42.14709</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.434173</v>
+        <v>5</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O109" t="n">
-        <v>42.94186</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0.4413739</v>
+        <v>5</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q109" t="n">
-        <v>42.6569</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.4351476</v>
+        <v>5</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S109" t="n">
-        <v>42.90287</v>
-      </c>
-      <c r="T109" t="n">
-        <v>0.4147042</v>
+        <v>5</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U109" t="n">
-        <v>43.74977</v>
-      </c>
-      <c r="V109" t="n">
-        <v>0.4244053</v>
+        <v>5</v>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W109" t="n">
-        <v>43.34013</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -10401,77 +10375,59 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F114" t="n">
+        <v>0.2181462</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.07309</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.2143228</v>
       </c>
       <c r="I114" t="n">
-        <v>6</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.84567</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2200518</v>
       </c>
       <c r="K114" t="n">
-        <v>6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.69617</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.2207439</v>
       </c>
       <c r="M114" t="n">
-        <v>6</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.56059</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.2149713</v>
       </c>
       <c r="O114" t="n">
-        <v>6</v>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.71311</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.2168087</v>
       </c>
       <c r="Q114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.34088</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.2170977</v>
       </c>
       <c r="S114" t="n">
-        <v>6</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.28279</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.2112663</v>
       </c>
       <c r="U114" t="n">
-        <v>6</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>52.47901</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.2136334</v>
       </c>
       <c r="W114" t="n">
-        <v>6</v>
+        <v>51.98731</v>
       </c>
     </row>
     <row r="115">
@@ -10986,59 +10942,77 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F121" t="n">
-        <v>0.2181468</v>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G121" t="n">
-        <v>51.07297</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.2143222</v>
+        <v>6</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I121" t="n">
-        <v>51.8458</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.2200518</v>
+        <v>6</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K121" t="n">
-        <v>50.69615</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.2207446</v>
+        <v>6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>50.56046</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.2149712</v>
+        <v>6</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O121" t="n">
-        <v>51.71312</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.2168081</v>
+        <v>6</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q121" t="n">
-        <v>51.341</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.2170947</v>
+        <v>6</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S121" t="n">
-        <v>51.28338</v>
-      </c>
-      <c r="T121" t="n">
-        <v>0.2112657</v>
+        <v>6</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U121" t="n">
-        <v>52.47913</v>
-      </c>
-      <c r="V121" t="n">
-        <v>0.2136329</v>
+        <v>6</v>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W121" t="n">
-        <v>51.9874</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
@@ -11391,77 +11365,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F126" t="n">
+        <v>0.3973399</v>
       </c>
       <c r="G126" t="n">
-        <v>10</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.84674</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.3855982</v>
       </c>
       <c r="I126" t="n">
-        <v>10</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.97636</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4021748</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.40572</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.4048233</v>
       </c>
       <c r="M126" t="n">
-        <v>10</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.16977</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.3879161</v>
       </c>
       <c r="O126" t="n">
-        <v>10</v>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.7465</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.3923949</v>
       </c>
       <c r="Q126" t="n">
-        <v>10</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.31206</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.3972521</v>
       </c>
       <c r="S126" t="n">
-        <v>10</v>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.85487</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0.380784</v>
       </c>
       <c r="U126" t="n">
-        <v>10</v>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>61.46511</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.3861909</v>
       </c>
       <c r="W126" t="n">
-        <v>10</v>
+        <v>60.91725</v>
       </c>
     </row>
     <row r="127">
@@ -11976,59 +11932,77 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>0.3973408</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G133" t="n">
-        <v>59.84666</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.3855971</v>
+        <v>10</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I133" t="n">
-        <v>60.97648</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.4021747</v>
+        <v>10</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K133" t="n">
-        <v>59.40573</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.4048243</v>
+        <v>10</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>59.16968</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.3879159</v>
+        <v>10</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O133" t="n">
-        <v>60.74652</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0.3923938</v>
+        <v>10</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q133" t="n">
-        <v>60.31217</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0.3972462</v>
+        <v>10</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S133" t="n">
-        <v>59.85542</v>
-      </c>
-      <c r="T133" t="n">
-        <v>0.3807829</v>
+        <v>10</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U133" t="n">
-        <v>61.46521</v>
-      </c>
-      <c r="V133" t="n">
-        <v>0.3861901</v>
+        <v>10</v>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W133" t="n">
-        <v>60.91734</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
@@ -12381,77 +12355,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F138" t="n">
+        <v>0.3632385</v>
       </c>
       <c r="G138" t="n">
-        <v>10</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.38601</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.3524639</v>
       </c>
       <c r="I138" t="n">
-        <v>10</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.68574</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.3672096</v>
       </c>
       <c r="K138" t="n">
-        <v>10</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.93096</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.3697928</v>
       </c>
       <c r="M138" t="n">
-        <v>10</v>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.64154</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.3547299</v>
       </c>
       <c r="O138" t="n">
-        <v>10</v>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.4042</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.3584099</v>
       </c>
       <c r="Q138" t="n">
-        <v>10</v>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.9564</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0.3638895</v>
       </c>
       <c r="S138" t="n">
-        <v>10</v>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.31056</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.3491764</v>
       </c>
       <c r="U138" t="n">
-        <v>10</v>
-      </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.10231</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0.3536017</v>
       </c>
       <c r="W138" t="n">
-        <v>10</v>
+        <v>64.54380999999999</v>
       </c>
     </row>
     <row r="139">
@@ -12966,59 +12922,77 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>0.3632391</v>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G145" t="n">
-        <v>63.38594</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.3524631</v>
+        <v>10</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I145" t="n">
-        <v>64.68585</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.3672094</v>
+        <v>10</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K145" t="n">
-        <v>62.93098</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.3697935</v>
+        <v>10</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>62.64146</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.3547297</v>
+        <v>10</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O145" t="n">
-        <v>64.40422</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0.3584091</v>
+        <v>10</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q145" t="n">
-        <v>63.9565</v>
-      </c>
-      <c r="R145" t="n">
-        <v>0.3638849</v>
+        <v>10</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S145" t="n">
-        <v>63.31108</v>
-      </c>
-      <c r="T145" t="n">
-        <v>0.3491757</v>
+        <v>10</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U145" t="n">
-        <v>65.1024</v>
-      </c>
-      <c r="V145" t="n">
-        <v>0.353601</v>
+        <v>10</v>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W145" t="n">
-        <v>64.54389</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146">
@@ -13371,77 +13345,59 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F150" t="n">
+        <v>0.5511236</v>
       </c>
       <c r="G150" t="n">
-        <v>12</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.48553</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.5266041</v>
       </c>
       <c r="I150" t="n">
-        <v>12</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.94735</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.5593964</v>
       </c>
       <c r="K150" t="n">
-        <v>12</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.02538</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.5657533</v>
       </c>
       <c r="M150" t="n">
-        <v>12</v>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.68219000000001</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.5319737</v>
       </c>
       <c r="O150" t="n">
-        <v>12</v>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.61391999999999</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.5394656</v>
       </c>
       <c r="Q150" t="n">
-        <v>12</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.16149</v>
+      </c>
+      <c r="R150" t="n">
+        <v>0.5537715</v>
       </c>
       <c r="S150" t="n">
-        <v>12</v>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.33654</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0.5211632</v>
       </c>
       <c r="U150" t="n">
-        <v>12</v>
-      </c>
-      <c r="V150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>68.29335</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0.5300454999999999</v>
       </c>
       <c r="W150" t="n">
-        <v>12</v>
+        <v>67.73275</v>
       </c>
     </row>
     <row r="151">
@@ -13956,59 +13912,77 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F157" t="n">
-        <v>0.5511246</v>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G157" t="n">
-        <v>66.48548</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0.5266025</v>
+        <v>12</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I157" t="n">
-        <v>67.94745</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.559396</v>
+        <v>12</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K157" t="n">
-        <v>66.0254</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.5657545</v>
+        <v>12</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>65.68213</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.5319734</v>
+        <v>12</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O157" t="n">
-        <v>67.61394</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0.5394639</v>
+        <v>12</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q157" t="n">
-        <v>67.16159</v>
-      </c>
-      <c r="R157" t="n">
-        <v>0.5537625</v>
+        <v>12</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S157" t="n">
-        <v>66.33705</v>
-      </c>
-      <c r="T157" t="n">
-        <v>0.5211616999999999</v>
+        <v>12</v>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U157" t="n">
-        <v>68.29344</v>
-      </c>
-      <c r="V157" t="n">
-        <v>0.5300443</v>
+        <v>12</v>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W157" t="n">
-        <v>67.73283000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -14361,77 +14335,59 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F162" t="n">
+        <v>0.8224329</v>
       </c>
       <c r="G162" t="n">
-        <v>15</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.63761</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.7692682</v>
       </c>
       <c r="I162" t="n">
-        <v>15</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.39716</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.8372955</v>
       </c>
       <c r="K162" t="n">
-        <v>15</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.18652</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.8526118</v>
       </c>
       <c r="M162" t="n">
-        <v>15</v>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>70.73829000000001</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.7817329</v>
       </c>
       <c r="O162" t="n">
-        <v>15</v>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.96250999999999</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.7948698</v>
       </c>
       <c r="Q162" t="n">
-        <v>15</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.51965</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.8312843</v>
       </c>
       <c r="S162" t="n">
-        <v>15</v>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.36699</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0.7633329</v>
       </c>
       <c r="U162" t="n">
-        <v>15</v>
-      </c>
-      <c r="V162" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.6093</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0.7788211</v>
       </c>
       <c r="W162" t="n">
-        <v>15</v>
+        <v>73.06276</v>
       </c>
     </row>
     <row r="163">
@@ -14946,59 +14902,77 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F169" t="n">
-        <v>0.8224342</v>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G169" t="n">
-        <v>71.63757</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0.7692658</v>
+        <v>15</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I169" t="n">
-        <v>73.39725</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.8372946999999999</v>
+        <v>15</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K169" t="n">
-        <v>71.18653999999999</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.8526133</v>
+        <v>15</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>70.73824999999999</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.7817323</v>
+        <v>15</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O169" t="n">
-        <v>72.96253</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0.7948672</v>
+        <v>15</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q169" t="n">
-        <v>72.51974</v>
-      </c>
-      <c r="R169" t="n">
-        <v>0.831269</v>
+        <v>15</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S169" t="n">
-        <v>71.36745000000001</v>
-      </c>
-      <c r="T169" t="n">
-        <v>0.7633307</v>
+        <v>15</v>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="U169" t="n">
-        <v>73.60938</v>
-      </c>
-      <c r="V169" t="n">
-        <v>0.7788192</v>
+        <v>15</v>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="W169" t="n">
-        <v>73.06282</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/FuseLinks/Trifasico_RF_2.xlsx
+++ b/FuseLinks/Trifasico_RF_2.xlsx
@@ -578,64 +578,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64313</v>
+        <v>10.307</v>
       </c>
       <c r="G2" t="n">
-        <v>14.9774</v>
+        <v>7.25425</v>
       </c>
       <c r="H2" t="n">
-        <v>1.63356</v>
+        <v>10.1316</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0147</v>
+        <v>7.29906</v>
       </c>
       <c r="J2" t="n">
-        <v>1.65959</v>
+        <v>10.0789</v>
       </c>
       <c r="K2" t="n">
-        <v>14.914</v>
+        <v>7.31273</v>
       </c>
       <c r="L2" t="n">
-        <v>1.65726</v>
+        <v>10.2121</v>
       </c>
       <c r="M2" t="n">
-        <v>14.9229</v>
+        <v>7.27835</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6315</v>
+        <v>10.266</v>
       </c>
       <c r="O2" t="n">
-        <v>15.0228</v>
+        <v>7.26463</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64764</v>
+        <v>10.0396</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.9599</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32303</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.4538</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.166079999999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.27965</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23836</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7.49543</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>8.14917</v>
       </c>
     </row>
     <row r="3">
@@ -665,64 +659,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.64313</v>
+        <v>10.307</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9774</v>
+        <v>7.25425</v>
       </c>
       <c r="H3" t="n">
-        <v>1.63356</v>
+        <v>10.1316</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0147</v>
+        <v>7.29906</v>
       </c>
       <c r="J3" t="n">
-        <v>1.65959</v>
+        <v>10.0789</v>
       </c>
       <c r="K3" t="n">
-        <v>14.914</v>
+        <v>7.31273</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65727</v>
+        <v>10.2121</v>
       </c>
       <c r="M3" t="n">
-        <v>14.9229</v>
+        <v>7.27836</v>
       </c>
       <c r="N3" t="n">
-        <v>1.63151</v>
+        <v>10.266</v>
       </c>
       <c r="O3" t="n">
-        <v>15.0228</v>
+        <v>7.26462</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64764</v>
+        <v>10.0396</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.9599</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32302</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7.4538</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.166079999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7.27964</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23836</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.49542</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.14917</v>
       </c>
     </row>
     <row r="4">
@@ -752,70 +740,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.64216</v>
+        <v>10.3071</v>
       </c>
       <c r="G4" t="n">
-        <v>14.9812</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25423</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.1312</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29915</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.0807</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.31228</v>
       </c>
       <c r="L4" t="n">
-        <v>2.09289</v>
+        <v>10.2134</v>
       </c>
       <c r="M4" t="n">
-        <v>13.5219</v>
+        <v>7.27801</v>
       </c>
       <c r="N4" t="n">
-        <v>2.13315</v>
+        <v>10.2652</v>
       </c>
       <c r="O4" t="n">
-        <v>13.4144</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26482</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10.0405</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32279</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.45289</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.166449999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.28016</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.238149999999999</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.49487</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.1494</v>
       </c>
     </row>
     <row r="5">
@@ -845,70 +821,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64195</v>
+        <v>10.307</v>
       </c>
       <c r="G5" t="n">
-        <v>14.982</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25424</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.1312</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29915</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.081</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.31219</v>
       </c>
       <c r="L5" t="n">
-        <v>2.09484</v>
+        <v>10.2136</v>
       </c>
       <c r="M5" t="n">
-        <v>13.5166</v>
+        <v>7.27797</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12137</v>
+        <v>10.2651</v>
       </c>
       <c r="O5" t="n">
-        <v>13.4456</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26486</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10.0407</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32272</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.45278</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16649</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.28026</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.238099999999999</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.49471</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>8.149459999999999</v>
       </c>
     </row>
     <row r="6">
@@ -937,71 +901,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F6" t="n">
+        <v>10.3067</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25433</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.1336</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.29853</v>
       </c>
       <c r="J6" t="n">
-        <v>1.65959</v>
+        <v>10.0789</v>
       </c>
       <c r="K6" t="n">
-        <v>14.914</v>
+        <v>7.31273</v>
       </c>
       <c r="L6" t="n">
-        <v>2.17085</v>
+        <v>10.2112</v>
       </c>
       <c r="M6" t="n">
-        <v>13.3165</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27859</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.2672</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>7.26432</v>
       </c>
       <c r="P6" t="n">
-        <v>2.10133</v>
+        <v>10.041</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.4991</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32264</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.45442</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16583</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.27895</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23865</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.49444</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.149570000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1030,71 +982,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F7" t="n">
+        <v>10.3067</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25434</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.1338</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7.29849</v>
       </c>
       <c r="J7" t="n">
-        <v>1.65959</v>
+        <v>10.0789</v>
       </c>
       <c r="K7" t="n">
-        <v>14.914</v>
+        <v>7.31273</v>
       </c>
       <c r="L7" t="n">
-        <v>2.16183</v>
+        <v>10.2111</v>
       </c>
       <c r="M7" t="n">
-        <v>13.3397</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27861</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.2673</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.2643</v>
       </c>
       <c r="P7" t="n">
-        <v>2.10278</v>
+        <v>10.0411</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.4952</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32261</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.45447</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16581</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.2789</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23868</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7.49436</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8.149609999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1123,71 +1063,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F8" t="n">
+        <v>10.3088</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>7.25379</v>
       </c>
       <c r="H8" t="n">
-        <v>1.68624</v>
+        <v>10.1315</v>
       </c>
       <c r="I8" t="n">
-        <v>14.8133</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29908</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.0787</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31279</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.2132</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>7.27808</v>
       </c>
       <c r="N8" t="n">
-        <v>2.18165</v>
+        <v>10.2672</v>
       </c>
       <c r="O8" t="n">
-        <v>13.2889</v>
+        <v>7.26432</v>
       </c>
       <c r="P8" t="n">
-        <v>2.15646</v>
+        <v>10.0388</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.3536</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32323</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.45312</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.166359999999999</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.27887</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23869</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.496</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>8.14894</v>
       </c>
     </row>
     <row r="9">
@@ -1216,71 +1144,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F9" t="n">
+        <v>10.3092</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.25371</v>
       </c>
       <c r="H9" t="n">
-        <v>1.69021</v>
+        <v>10.1316</v>
       </c>
       <c r="I9" t="n">
-        <v>14.7985</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29906</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.0786</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31282</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.2133</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>7.27806</v>
       </c>
       <c r="N9" t="n">
-        <v>2.18865</v>
+        <v>10.2675</v>
       </c>
       <c r="O9" t="n">
-        <v>13.2711</v>
+        <v>7.26424</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14834</v>
+        <v>10.0387</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.3747</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32326</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.45306</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16638</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.27868</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.238770000000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.49609</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>8.148910000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1309,77 +1225,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F10" t="n">
+        <v>10.3068</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25431</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.1333</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29862</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.0807</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31228</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.2125</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27824</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.2664</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26452</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.0419</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32241</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.45352</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.1662</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.27947</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.238440000000001</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7.49388</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>8.149800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1408,77 +1306,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F11" t="n">
+        <v>10.3089</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25377</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.1311</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29917</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.0805</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31234</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.2145</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27774</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.2664</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26451</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10.0397</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32299</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.45222</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16672</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.27938</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23847</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.49545</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.14916</v>
       </c>
     </row>
     <row r="12">
@@ -1507,77 +1387,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F12" t="n">
+        <v>10.3085</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25387</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.1336</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29855</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.0787</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31279</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10.2122</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27832</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.2684</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26401</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10.0402</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32285</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.45375</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.1661</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.27818</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23898</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.49501</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>8.14934</v>
       </c>
     </row>
     <row r="13">
@@ -1706,64 +1568,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.587977</v>
+        <v>6.11937</v>
       </c>
       <c r="G14" t="n">
-        <v>23.4634</v>
+        <v>8.79547</v>
       </c>
       <c r="H14" t="n">
-        <v>0.582202</v>
+        <v>6.00325</v>
       </c>
       <c r="I14" t="n">
-        <v>23.5668</v>
+        <v>8.85988</v>
       </c>
       <c r="J14" t="n">
-        <v>0.596143</v>
+        <v>5.96367</v>
       </c>
       <c r="K14" t="n">
-        <v>23.3197</v>
+        <v>8.88227</v>
       </c>
       <c r="L14" t="n">
-        <v>0.595382</v>
+        <v>6.05316</v>
       </c>
       <c r="M14" t="n">
-        <v>23.3329</v>
+        <v>8.83197</v>
       </c>
       <c r="N14" t="n">
-        <v>0.581473</v>
+        <v>6.09387</v>
       </c>
       <c r="O14" t="n">
-        <v>23.58</v>
+        <v>8.80946</v>
       </c>
       <c r="P14" t="n">
-        <v>0.589493</v>
+        <v>5.93936</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.4365</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89612</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.49603</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90903</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.40364</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990259999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.50677</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.899749999999999</v>
       </c>
     </row>
     <row r="15">
@@ -1793,64 +1649,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.587978</v>
+        <v>6.11937</v>
       </c>
       <c r="G15" t="n">
-        <v>23.4634</v>
+        <v>8.79547</v>
       </c>
       <c r="H15" t="n">
-        <v>0.582203</v>
+        <v>6.00327</v>
       </c>
       <c r="I15" t="n">
-        <v>23.5668</v>
+        <v>8.85988</v>
       </c>
       <c r="J15" t="n">
-        <v>0.596143</v>
+        <v>5.96367</v>
       </c>
       <c r="K15" t="n">
-        <v>23.3197</v>
+        <v>8.88227</v>
       </c>
       <c r="L15" t="n">
-        <v>0.595383</v>
+        <v>6.05316</v>
       </c>
       <c r="M15" t="n">
-        <v>23.3329</v>
+        <v>8.83198</v>
       </c>
       <c r="N15" t="n">
-        <v>0.581474</v>
+        <v>6.09387</v>
       </c>
       <c r="O15" t="n">
-        <v>23.5799</v>
+        <v>8.80946</v>
       </c>
       <c r="P15" t="n">
-        <v>0.589493</v>
+        <v>5.93937</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.4365</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89612</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.49603</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90903</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.40364</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990259999999999</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.50676</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>9.899749999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1880,66 +1730,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.586697</v>
+        <v>6.11943</v>
       </c>
       <c r="G16" t="n">
-        <v>23.4862</v>
+        <v>8.795439999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1.88947</v>
+        <v>6.00298</v>
       </c>
       <c r="I16" t="n">
-        <v>14.1161</v>
+        <v>8.86003</v>
       </c>
       <c r="J16" t="n">
-        <v>1.97922</v>
+        <v>5.96481</v>
       </c>
       <c r="K16" t="n">
-        <v>13.8427</v>
+        <v>8.88162</v>
       </c>
       <c r="L16" t="n">
-        <v>0.778761</v>
+        <v>6.05407</v>
       </c>
       <c r="M16" t="n">
-        <v>20.7137</v>
+        <v>8.831469999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7632989999999999</v>
+        <v>6.09332</v>
       </c>
       <c r="O16" t="n">
-        <v>20.898</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.809760000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.93992</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.895799999999999</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.49563</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909380000000001</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.40386</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990069999999999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.50649</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.899990000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1969,66 +1811,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.586611</v>
+        <v>6.11938</v>
       </c>
       <c r="G17" t="n">
-        <v>23.4877</v>
+        <v>8.79546</v>
       </c>
       <c r="H17" t="n">
-        <v>1.85701</v>
+        <v>6.003</v>
       </c>
       <c r="I17" t="n">
-        <v>14.2198</v>
+        <v>8.86003</v>
       </c>
       <c r="J17" t="n">
-        <v>1.97155</v>
+        <v>5.96503</v>
       </c>
       <c r="K17" t="n">
-        <v>13.8654</v>
+        <v>8.881489999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>0.779828</v>
+        <v>6.05419</v>
       </c>
       <c r="M17" t="n">
-        <v>20.7012</v>
+        <v>8.8314</v>
       </c>
       <c r="N17" t="n">
-        <v>0.759783</v>
+        <v>6.09322</v>
       </c>
       <c r="O17" t="n">
-        <v>20.9406</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80982</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.94009</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.895709999999999</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.49558</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909420000000001</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.4039</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990030000000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4.50642</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.90005</v>
       </c>
     </row>
     <row r="18">
@@ -2058,66 +1892,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95219</v>
+        <v>6.11911</v>
       </c>
       <c r="G18" t="n">
-        <v>13.9231</v>
+        <v>8.79561</v>
       </c>
       <c r="H18" t="n">
-        <v>1.97817</v>
+        <v>6.00462</v>
       </c>
       <c r="I18" t="n">
-        <v>13.8458</v>
+        <v>8.859109999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.596143</v>
+        <v>5.96367</v>
       </c>
       <c r="K18" t="n">
-        <v>23.3197</v>
+        <v>8.88227</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7811630000000001</v>
+        <v>6.05252</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6856</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.832330000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.09463</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>8.80904</v>
       </c>
       <c r="P18" t="n">
-        <v>0.785679</v>
+        <v>5.94034</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.633</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.895569999999999</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.49629</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.908799999999999</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.40331</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99056</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.50633</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>9.900130000000001</v>
       </c>
     </row>
     <row r="19">
@@ -2147,66 +1973,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9259</v>
+        <v>6.11908</v>
       </c>
       <c r="G19" t="n">
-        <v>14.0029</v>
+        <v>8.795629999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1.9716</v>
+        <v>6.00473</v>
       </c>
       <c r="I19" t="n">
-        <v>13.8652</v>
+        <v>8.85905</v>
       </c>
       <c r="J19" t="n">
-        <v>0.596143</v>
+        <v>5.96367</v>
       </c>
       <c r="K19" t="n">
-        <v>23.3197</v>
+        <v>8.88227</v>
       </c>
       <c r="L19" t="n">
-        <v>0.778489</v>
+        <v>6.05247</v>
       </c>
       <c r="M19" t="n">
-        <v>20.7169</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.83236</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.09468</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>8.809010000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.786487</v>
+        <v>5.94041</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.6236</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.895519999999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.49632</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90878</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.40328</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99058</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4.50629</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>9.90016</v>
       </c>
     </row>
     <row r="20">
@@ -2236,66 +2054,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.16288</v>
+        <v>6.12058</v>
       </c>
       <c r="G20" t="n">
-        <v>13.337</v>
+        <v>8.79481</v>
       </c>
       <c r="H20" t="n">
-        <v>0.616861</v>
+        <v>6.0032</v>
       </c>
       <c r="I20" t="n">
-        <v>22.9677</v>
+        <v>8.859909999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>1.89607</v>
+        <v>5.96348</v>
       </c>
       <c r="K20" t="n">
-        <v>14.0954</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.88237</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.05384</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>8.8316</v>
       </c>
       <c r="N20" t="n">
-        <v>0.833688</v>
+        <v>6.09469</v>
       </c>
       <c r="O20" t="n">
-        <v>20.1005</v>
+        <v>8.809010000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>0.787559</v>
+        <v>5.93882</v>
       </c>
       <c r="Q20" t="n">
-        <v>20.6113</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.896430000000001</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.4957</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90931</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.40329</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99057</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.50701</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.89954</v>
       </c>
     </row>
     <row r="21">
@@ -2325,66 +2135,58 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.15478</v>
+        <v>6.12079</v>
       </c>
       <c r="G21" t="n">
-        <v>13.3579</v>
+        <v>8.794689999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0.618574</v>
+        <v>6.00326</v>
       </c>
       <c r="I21" t="n">
-        <v>22.9394</v>
+        <v>8.85988</v>
       </c>
       <c r="J21" t="n">
-        <v>1.86303</v>
+        <v>5.9634</v>
       </c>
       <c r="K21" t="n">
-        <v>14.2004</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.88242</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.0539</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.83156</v>
       </c>
       <c r="N21" t="n">
-        <v>0.837178</v>
+        <v>6.0949</v>
       </c>
       <c r="O21" t="n">
-        <v>20.0636</v>
+        <v>8.80889</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7856</v>
+        <v>5.93874</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.6339</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89648</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.49567</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90934</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.40321</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99065</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.50704</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>9.899509999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2413,77 +2215,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F22" t="n">
+        <v>6.11917</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.795579999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.00435</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85927</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.96482</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.88162</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.05344</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.83182</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.09408</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.809340000000001</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.9409</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.895239999999999</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.49589</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90915</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.40352</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990360000000001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.50605</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.900359999999999</v>
       </c>
     </row>
     <row r="23">
@@ -2512,77 +2296,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F23" t="n">
+        <v>6.12064</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.794779999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.00293</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.86007</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.96462</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881729999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.05475</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.83109</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.09415</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80931</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.93938</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89611</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.4953</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909660000000001</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.40351</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99038</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.50674</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9.89978</v>
       </c>
     </row>
     <row r="24">
@@ -2611,77 +2377,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F24" t="n">
+        <v>6.12031</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79496</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.00457</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85914</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.96348</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.88237</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.0532</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.831950000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.09545</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.808590000000001</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.9398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89587</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.49597</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909079999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.40296</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.990869999999999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.50657</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>9.89992</v>
       </c>
     </row>
     <row r="25">
@@ -2810,64 +2558,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.419273</v>
+        <v>5.30948</v>
       </c>
       <c r="G26" t="n">
-        <v>27.2974</v>
+        <v>9.28745</v>
       </c>
       <c r="H26" t="n">
-        <v>0.414239</v>
+        <v>5.20552</v>
       </c>
       <c r="I26" t="n">
-        <v>27.4461</v>
+        <v>9.35873</v>
       </c>
       <c r="J26" t="n">
-        <v>0.425736</v>
+        <v>5.16866</v>
       </c>
       <c r="K26" t="n">
-        <v>27.1104</v>
+        <v>9.384510000000001</v>
       </c>
       <c r="L26" t="n">
-        <v>0.425292</v>
+        <v>5.24919</v>
       </c>
       <c r="M26" t="n">
-        <v>27.1231</v>
+        <v>9.328530000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>0.413827</v>
+        <v>5.28714</v>
       </c>
       <c r="O26" t="n">
-        <v>27.4583</v>
+        <v>9.30259</v>
       </c>
       <c r="P26" t="n">
-        <v>0.420131</v>
+        <v>5.14742</v>
       </c>
       <c r="Q26" t="n">
-        <v>27.2724</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.3995</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.91529</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4661</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.83806</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5495</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.92109</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>10.4599</v>
       </c>
     </row>
     <row r="27">
@@ -2897,64 +2639,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.419274</v>
+        <v>5.30948</v>
       </c>
       <c r="G27" t="n">
-        <v>27.2974</v>
+        <v>9.28745</v>
       </c>
       <c r="H27" t="n">
-        <v>0.414239</v>
+        <v>5.20553</v>
       </c>
       <c r="I27" t="n">
-        <v>27.446</v>
+        <v>9.35872</v>
       </c>
       <c r="J27" t="n">
-        <v>0.425736</v>
+        <v>5.16866</v>
       </c>
       <c r="K27" t="n">
-        <v>27.1104</v>
+        <v>9.384510000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.425293</v>
+        <v>5.24919</v>
       </c>
       <c r="M27" t="n">
-        <v>27.1231</v>
+        <v>9.328530000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.413828</v>
+        <v>5.28714</v>
       </c>
       <c r="O27" t="n">
-        <v>27.4583</v>
+        <v>9.30259</v>
       </c>
       <c r="P27" t="n">
-        <v>0.420131</v>
+        <v>5.14743</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.2724</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.39949</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.91529</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4661</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.83806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5495</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.92109</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>10.4599</v>
       </c>
     </row>
     <row r="28">
@@ -2984,66 +2720,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.417975</v>
+        <v>5.30953</v>
       </c>
       <c r="G28" t="n">
-        <v>27.3355</v>
+        <v>9.287419999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1.38173</v>
+        <v>5.20527</v>
       </c>
       <c r="I28" t="n">
-        <v>16.1304</v>
+        <v>9.35891</v>
       </c>
       <c r="J28" t="n">
-        <v>1.50495</v>
+        <v>5.16969</v>
       </c>
       <c r="K28" t="n">
-        <v>15.5498</v>
+        <v>9.383789999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>0.562596</v>
+        <v>5.25002</v>
       </c>
       <c r="M28" t="n">
-        <v>23.9295</v>
+        <v>9.327959999999999</v>
       </c>
       <c r="N28" t="n">
-        <v>0.543022</v>
+        <v>5.28664</v>
       </c>
       <c r="O28" t="n">
-        <v>24.3107</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.30293</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.14792</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.399150000000001</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.91497</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4664</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.83823</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5493</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.92087</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>10.4602</v>
       </c>
     </row>
     <row r="29">
@@ -3073,66 +2801,58 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.417911</v>
+        <v>5.30949</v>
       </c>
       <c r="G29" t="n">
-        <v>27.3374</v>
+        <v>9.28745</v>
       </c>
       <c r="H29" t="n">
-        <v>1.35951</v>
+        <v>5.20527</v>
       </c>
       <c r="I29" t="n">
-        <v>16.2434</v>
+        <v>9.3589</v>
       </c>
       <c r="J29" t="n">
-        <v>1.5008</v>
+        <v>5.16988</v>
       </c>
       <c r="K29" t="n">
-        <v>15.5682</v>
+        <v>9.383660000000001</v>
       </c>
       <c r="L29" t="n">
-        <v>0.563433</v>
+        <v>5.25012</v>
       </c>
       <c r="M29" t="n">
-        <v>23.9136</v>
+        <v>9.3279</v>
       </c>
       <c r="N29" t="n">
-        <v>0.540646</v>
+        <v>5.28655</v>
       </c>
       <c r="O29" t="n">
-        <v>24.3584</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.302989999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.14806</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.399039999999999</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.91493</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4665</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.83826</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5493</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.92081</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>10.4602</v>
       </c>
     </row>
     <row r="30">
@@ -3162,66 +2882,58 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.43168</v>
+        <v>5.30923</v>
       </c>
       <c r="G30" t="n">
-        <v>15.8862</v>
+        <v>9.28762</v>
       </c>
       <c r="H30" t="n">
-        <v>1.50575</v>
+        <v>5.20675</v>
       </c>
       <c r="I30" t="n">
-        <v>15.5463</v>
+        <v>9.35788</v>
       </c>
       <c r="J30" t="n">
-        <v>0.425736</v>
+        <v>5.16866</v>
       </c>
       <c r="K30" t="n">
-        <v>27.1104</v>
+        <v>9.384510000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0.557068</v>
+        <v>5.24861</v>
       </c>
       <c r="M30" t="n">
-        <v>24.0352</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32893</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.28781</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>9.30213</v>
       </c>
       <c r="P30" t="n">
-        <v>0.568864</v>
+        <v>5.1483</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.8116</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.39888</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.91549</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4659</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.83779</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5498</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.92075</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>10.4603</v>
       </c>
     </row>
     <row r="31">
@@ -3251,66 +2963,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.41376</v>
+        <v>5.3092</v>
       </c>
       <c r="G31" t="n">
-        <v>15.9723</v>
+        <v>9.28764</v>
       </c>
       <c r="H31" t="n">
-        <v>1.502</v>
+        <v>5.20684</v>
       </c>
       <c r="I31" t="n">
-        <v>15.5629</v>
+        <v>9.357810000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0.425736</v>
+        <v>5.16866</v>
       </c>
       <c r="K31" t="n">
-        <v>27.1104</v>
+        <v>9.384510000000001</v>
       </c>
       <c r="L31" t="n">
-        <v>0.555291</v>
+        <v>5.24856</v>
       </c>
       <c r="M31" t="n">
-        <v>24.0695</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32896</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.28786</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>9.302099999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>0.569504</v>
+        <v>5.14837</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.7996</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.39883</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.9155</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4659</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.83777</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5498</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.92072</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>10.4603</v>
       </c>
     </row>
     <row r="32">
@@ -3340,66 +3044,58 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.6721</v>
+        <v>5.31056</v>
       </c>
       <c r="G32" t="n">
-        <v>14.8664</v>
+        <v>9.286720000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.445017</v>
+        <v>5.20547</v>
       </c>
       <c r="I32" t="n">
-        <v>26.5765</v>
+        <v>9.35876</v>
       </c>
       <c r="J32" t="n">
-        <v>1.39868</v>
+        <v>5.16849</v>
       </c>
       <c r="K32" t="n">
-        <v>16.0461</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.384639999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.24979</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>9.32812</v>
       </c>
       <c r="N32" t="n">
-        <v>0.610535</v>
+        <v>5.28788</v>
       </c>
       <c r="O32" t="n">
-        <v>23.0733</v>
+        <v>9.30209</v>
       </c>
       <c r="P32" t="n">
-        <v>0.566758</v>
+        <v>5.14693</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.851</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.399850000000001</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.91502</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4664</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.83779</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5498</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.92127</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>10.4597</v>
       </c>
     </row>
     <row r="33">
@@ -3429,66 +3125,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.66821</v>
+        <v>5.31075</v>
       </c>
       <c r="G33" t="n">
-        <v>14.8812</v>
+        <v>9.28659</v>
       </c>
       <c r="H33" t="n">
-        <v>0.44632</v>
+        <v>5.20552</v>
       </c>
       <c r="I33" t="n">
-        <v>26.5417</v>
+        <v>9.35873</v>
       </c>
       <c r="J33" t="n">
-        <v>1.37607</v>
+        <v>5.16841</v>
       </c>
       <c r="K33" t="n">
-        <v>16.1589</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.384690000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.24985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>9.32808</v>
       </c>
       <c r="N33" t="n">
-        <v>0.61333</v>
+        <v>5.28807</v>
       </c>
       <c r="O33" t="n">
-        <v>23.0265</v>
+        <v>9.301959999999999</v>
       </c>
       <c r="P33" t="n">
-        <v>0.56559</v>
+        <v>5.14685</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.8729</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.399900000000001</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.915</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4664</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.83772</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5499</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.9213</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>10.4597</v>
       </c>
     </row>
     <row r="34">
@@ -3517,77 +3205,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F34" t="n">
+        <v>5.30928</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28759</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.20649</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35806</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.16969</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383789999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.24944</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32836</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.28731</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.302479999999999</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.14879</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398529999999999</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.91517</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4662</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.83795</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5496</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.92052</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>10.4605</v>
       </c>
     </row>
     <row r="35">
@@ -3616,77 +3286,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F35" t="n">
+        <v>5.31061</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28668</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.20522</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35894</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.16951</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.38392</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.25061</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32755</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.28739</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.30242</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.14742</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.3995</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.91471</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4667</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.83795</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5496</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.92105</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="36">
@@ -3715,77 +3367,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F36" t="n">
+        <v>5.3103</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28689</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.2067</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35791</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.16848</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.384639999999999</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.24921</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.328519999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.28855</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301629999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.14781</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.39922</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.91522</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4662</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.83752</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5501</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.92093</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>10.4601</v>
       </c>
     </row>
     <row r="37">
@@ -6883,74 +6517,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F74" t="n">
+        <v>0.96829</v>
       </c>
       <c r="G74" t="n">
         <v>31.5959</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H74" t="n">
+        <v>0.948379</v>
       </c>
       <c r="I74" t="n">
         <v>31.8616</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J74" t="n">
+        <v>0.980619</v>
       </c>
       <c r="K74" t="n">
         <v>31.4352</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L74" t="n">
+        <v>0.983398</v>
       </c>
       <c r="M74" t="n">
         <v>31.3994</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N74" t="n">
+        <v>0.950991</v>
       </c>
       <c r="O74" t="n">
         <v>31.8263</v>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P74" t="n">
+        <v>0.962914</v>
       </c>
       <c r="Q74" t="n">
         <v>31.6668</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R74" t="n">
+        <v>0.924407</v>
       </c>
       <c r="S74" t="n">
         <v>32.1925</v>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T74" t="n">
+        <v>0.89052</v>
       </c>
       <c r="U74" t="n">
         <v>32.682</v>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V74" t="n">
+        <v>0.910343</v>
       </c>
       <c r="W74" t="n">
         <v>32.3924</v>
@@ -6982,74 +6598,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F75" t="n">
+        <v>0.96829</v>
       </c>
       <c r="G75" t="n">
         <v>31.5958</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H75" t="n">
+        <v>0.948379</v>
       </c>
       <c r="I75" t="n">
         <v>31.8616</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J75" t="n">
+        <v>0.980619</v>
       </c>
       <c r="K75" t="n">
         <v>31.4352</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L75" t="n">
+        <v>0.983398</v>
       </c>
       <c r="M75" t="n">
         <v>31.3994</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N75" t="n">
+        <v>0.950991</v>
       </c>
       <c r="O75" t="n">
         <v>31.8263</v>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P75" t="n">
+        <v>0.962914</v>
       </c>
       <c r="Q75" t="n">
         <v>31.6668</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R75" t="n">
+        <v>0.924408</v>
       </c>
       <c r="S75" t="n">
         <v>32.1925</v>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T75" t="n">
+        <v>0.8905189999999999</v>
       </c>
       <c r="U75" t="n">
         <v>32.682</v>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V75" t="n">
+        <v>0.910343</v>
       </c>
       <c r="W75" t="n">
         <v>32.3925</v>
@@ -7081,74 +6679,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F76" t="n">
+        <v>0.968291</v>
       </c>
       <c r="G76" t="n">
         <v>31.5958</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H76" t="n">
+        <v>0.948369</v>
       </c>
       <c r="I76" t="n">
         <v>31.8618</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J76" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K76" t="n">
         <v>31.435</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L76" t="n">
+        <v>0.983414</v>
       </c>
       <c r="M76" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N76" t="n">
+        <v>0.950979</v>
       </c>
       <c r="O76" t="n">
         <v>31.8264</v>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P76" t="n">
+        <v>0.9629180000000001</v>
       </c>
       <c r="Q76" t="n">
         <v>31.6668</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R76" t="n">
+        <v>0.924383</v>
       </c>
       <c r="S76" t="n">
         <v>32.1928</v>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T76" t="n">
+        <v>0.890531</v>
       </c>
       <c r="U76" t="n">
         <v>32.6818</v>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V76" t="n">
+        <v>0.9103250000000001</v>
       </c>
       <c r="W76" t="n">
         <v>32.3927</v>
@@ -7180,74 +6760,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F77" t="n">
+        <v>0.96829</v>
       </c>
       <c r="G77" t="n">
         <v>31.5958</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H77" t="n">
+        <v>0.948368</v>
       </c>
       <c r="I77" t="n">
         <v>31.8618</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J77" t="n">
+        <v>0.980641</v>
       </c>
       <c r="K77" t="n">
         <v>31.4349</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L77" t="n">
+        <v>0.983416</v>
       </c>
       <c r="M77" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N77" t="n">
+        <v>0.950977</v>
       </c>
       <c r="O77" t="n">
         <v>31.8265</v>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P77" t="n">
+        <v>0.962921</v>
       </c>
       <c r="Q77" t="n">
         <v>31.6667</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R77" t="n">
+        <v>0.92438</v>
       </c>
       <c r="S77" t="n">
         <v>32.1929</v>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T77" t="n">
+        <v>0.890533</v>
       </c>
       <c r="U77" t="n">
         <v>32.6818</v>
       </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V77" t="n">
+        <v>0.91032</v>
       </c>
       <c r="W77" t="n">
         <v>32.3928</v>
@@ -7279,74 +6841,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F78" t="n">
+        <v>0.96828</v>
       </c>
       <c r="G78" t="n">
         <v>31.596</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H78" t="n">
+        <v>0.948399</v>
       </c>
       <c r="I78" t="n">
         <v>31.8613</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J78" t="n">
+        <v>0.980619</v>
       </c>
       <c r="K78" t="n">
         <v>31.4352</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L78" t="n">
+        <v>0.983384</v>
       </c>
       <c r="M78" t="n">
         <v>31.3996</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N78" t="n">
+        <v>0.950998</v>
       </c>
       <c r="O78" t="n">
         <v>31.8262</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P78" t="n">
+        <v>0.962932</v>
       </c>
       <c r="Q78" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R78" t="n">
+        <v>0.924421</v>
       </c>
       <c r="S78" t="n">
         <v>32.1923</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T78" t="n">
+        <v>0.890498</v>
       </c>
       <c r="U78" t="n">
         <v>32.6823</v>
       </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V78" t="n">
+        <v>0.910318</v>
       </c>
       <c r="W78" t="n">
         <v>32.3928</v>
@@ -7378,74 +6922,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F79" t="n">
+        <v>0.968278</v>
       </c>
       <c r="G79" t="n">
         <v>31.596</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H79" t="n">
+        <v>0.9484</v>
       </c>
       <c r="I79" t="n">
         <v>31.8613</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J79" t="n">
+        <v>0.980619</v>
       </c>
       <c r="K79" t="n">
         <v>31.4352</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L79" t="n">
+        <v>0.983383</v>
       </c>
       <c r="M79" t="n">
         <v>31.3996</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N79" t="n">
+        <v>0.950998</v>
       </c>
       <c r="O79" t="n">
         <v>31.8262</v>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P79" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q79" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R79" t="n">
+        <v>0.924423</v>
       </c>
       <c r="S79" t="n">
         <v>32.1923</v>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T79" t="n">
+        <v>0.890496</v>
       </c>
       <c r="U79" t="n">
         <v>32.6824</v>
       </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V79" t="n">
+        <v>0.910316</v>
       </c>
       <c r="W79" t="n">
         <v>32.3928</v>
@@ -7477,74 +7003,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F80" t="n">
+        <v>0.968307</v>
       </c>
       <c r="G80" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H80" t="n">
+        <v>0.9483780000000001</v>
       </c>
       <c r="I80" t="n">
         <v>31.8616</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J80" t="n">
+        <v>0.980611</v>
       </c>
       <c r="K80" t="n">
         <v>31.4353</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L80" t="n">
+        <v>0.983405</v>
       </c>
       <c r="M80" t="n">
         <v>31.3993</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N80" t="n">
+        <v>0.951005</v>
       </c>
       <c r="O80" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P80" t="n">
+        <v>0.962902</v>
       </c>
       <c r="Q80" t="n">
         <v>31.667</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R80" t="n">
+        <v>0.924386</v>
       </c>
       <c r="S80" t="n">
         <v>32.1928</v>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T80" t="n">
+        <v>0.8905</v>
       </c>
       <c r="U80" t="n">
         <v>32.6823</v>
       </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V80" t="n">
+        <v>0.9103560000000001</v>
       </c>
       <c r="W80" t="n">
         <v>32.3923</v>
@@ -7576,74 +7084,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F81" t="n">
+        <v>0.968311</v>
       </c>
       <c r="G81" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H81" t="n">
+        <v>0.948379</v>
       </c>
       <c r="I81" t="n">
         <v>31.8616</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J81" t="n">
+        <v>0.980608</v>
       </c>
       <c r="K81" t="n">
         <v>31.4354</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L81" t="n">
+        <v>0.983405</v>
       </c>
       <c r="M81" t="n">
         <v>31.3993</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N81" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O81" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P81" t="n">
+        <v>0.9629</v>
       </c>
       <c r="Q81" t="n">
         <v>31.667</v>
       </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R81" t="n">
+        <v>0.924384</v>
       </c>
       <c r="S81" t="n">
         <v>32.1928</v>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T81" t="n">
+        <v>0.890495</v>
       </c>
       <c r="U81" t="n">
         <v>32.6824</v>
       </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V81" t="n">
+        <v>0.910358</v>
       </c>
       <c r="W81" t="n">
         <v>32.3922</v>
@@ -7675,74 +7165,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F82" t="n">
+        <v>0.9682809999999999</v>
       </c>
       <c r="G82" t="n">
         <v>31.596</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H82" t="n">
+        <v>0.948389</v>
       </c>
       <c r="I82" t="n">
         <v>31.8615</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J82" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K82" t="n">
         <v>31.435</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L82" t="n">
+        <v>0.9834000000000001</v>
       </c>
       <c r="M82" t="n">
         <v>31.3994</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N82" t="n">
+        <v>0.950986</v>
       </c>
       <c r="O82" t="n">
         <v>31.8264</v>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P82" t="n">
+        <v>0.962936</v>
       </c>
       <c r="Q82" t="n">
         <v>31.6665</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R82" t="n">
+        <v>0.924397</v>
       </c>
       <c r="S82" t="n">
         <v>32.1926</v>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T82" t="n">
+        <v>0.890509</v>
       </c>
       <c r="U82" t="n">
         <v>32.6822</v>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V82" t="n">
+        <v>0.9103</v>
       </c>
       <c r="W82" t="n">
         <v>32.3931</v>
@@ -7774,74 +7246,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F83" t="n">
+        <v>0.9683079999999999</v>
       </c>
       <c r="G83" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H83" t="n">
+        <v>0.948368</v>
       </c>
       <c r="I83" t="n">
         <v>31.8618</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J83" t="n">
+        <v>0.9806280000000001</v>
       </c>
       <c r="K83" t="n">
         <v>31.4351</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L83" t="n">
+        <v>0.983421</v>
       </c>
       <c r="M83" t="n">
         <v>31.3991</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N83" t="n">
+        <v>0.950993</v>
       </c>
       <c r="O83" t="n">
         <v>31.8263</v>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P83" t="n">
+        <v>0.962906</v>
       </c>
       <c r="Q83" t="n">
         <v>31.6669</v>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R83" t="n">
+        <v>0.924362</v>
       </c>
       <c r="S83" t="n">
         <v>32.1931</v>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T83" t="n">
+        <v>0.8905110000000001</v>
       </c>
       <c r="U83" t="n">
         <v>32.6821</v>
       </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V83" t="n">
+        <v>0.910338</v>
       </c>
       <c r="W83" t="n">
         <v>32.3925</v>
@@ -7873,74 +7327,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F84" t="n">
+        <v>0.968297</v>
       </c>
       <c r="G84" t="n">
         <v>31.5958</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H84" t="n">
+        <v>0.948398</v>
       </c>
       <c r="I84" t="n">
         <v>31.8613</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J84" t="n">
+        <v>0.980611</v>
       </c>
       <c r="K84" t="n">
         <v>31.4353</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L84" t="n">
+        <v>0.983391</v>
       </c>
       <c r="M84" t="n">
         <v>31.3995</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N84" t="n">
+        <v>0.951012</v>
       </c>
       <c r="O84" t="n">
         <v>31.826</v>
       </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P84" t="n">
+        <v>0.96292</v>
       </c>
       <c r="Q84" t="n">
         <v>31.6667</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R84" t="n">
+        <v>0.9244</v>
       </c>
       <c r="S84" t="n">
         <v>32.1926</v>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T84" t="n">
+        <v>0.890478</v>
       </c>
       <c r="U84" t="n">
         <v>32.6826</v>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V84" t="n">
+        <v>0.910331</v>
       </c>
       <c r="W84" t="n">
         <v>32.3926</v>
@@ -15137,77 +14573,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F2" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.082</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L2" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="3">
@@ -15236,77 +14654,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F3" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.082</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T3" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="4">
@@ -15335,77 +14735,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F4" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.082</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="5">
@@ -15434,77 +14816,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F5" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.082</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="6">
@@ -15533,77 +14897,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F6" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.082</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="7">
@@ -15632,77 +14978,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F7" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.082</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="8">
@@ -15731,77 +15059,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F8" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.082</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="9">
@@ -15830,77 +15140,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F9" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10.082</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="10">
@@ -15929,77 +15221,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F10" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.082</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="11">
@@ -16028,77 +15302,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F11" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10.082</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="12">
@@ -16127,77 +15383,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F12" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10.082</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L12" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="13">
@@ -16325,77 +15563,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F14" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="15">
@@ -16424,77 +15644,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F15" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V15" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="16">
@@ -16523,77 +15725,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F16" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="17">
@@ -16622,77 +15806,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F17" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="18">
@@ -16721,77 +15887,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F18" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="19">
@@ -16820,77 +15968,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F19" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V19" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="20">
@@ -16919,77 +16049,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F20" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="21">
@@ -17018,77 +16130,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F21" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="22">
@@ -17117,77 +16211,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F22" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="23">
@@ -17216,77 +16292,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F23" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="24">
@@ -17315,77 +16373,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F24" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="25">
@@ -17513,77 +16553,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F26" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="27">
@@ -17612,77 +16634,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F27" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="28">
@@ -17711,77 +16715,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F28" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="29">
@@ -17810,77 +16796,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F29" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="30">
@@ -17909,77 +16877,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F30" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="31">
@@ -18008,77 +16958,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F31" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="32">
@@ -18107,77 +17039,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F32" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="33">
@@ -18206,77 +17120,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F33" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="34">
@@ -18305,77 +17201,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F34" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="35">
@@ -18404,77 +17282,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F35" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="36">
@@ -18503,77 +17363,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F36" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="37">
@@ -21671,74 +20513,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F74" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G74" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H74" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I74" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J74" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K74" t="n">
         <v>31.435</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L74" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M74" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N74" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O74" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P74" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q74" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R74" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S74" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T74" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U74" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V74" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W74" t="n">
         <v>32.3933</v>
@@ -21770,74 +20594,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F75" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G75" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H75" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I75" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J75" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K75" t="n">
         <v>31.435</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L75" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M75" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N75" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O75" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P75" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q75" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R75" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S75" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T75" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U75" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V75" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W75" t="n">
         <v>32.3933</v>
@@ -21869,74 +20675,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F76" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G76" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H76" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I76" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J76" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K76" t="n">
         <v>31.435</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L76" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M76" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N76" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O76" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P76" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q76" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R76" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S76" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T76" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U76" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V76" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W76" t="n">
         <v>32.3933</v>
@@ -21968,74 +20756,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F77" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G77" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H77" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I77" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J77" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K77" t="n">
         <v>31.435</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L77" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M77" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N77" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O77" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P77" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q77" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R77" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S77" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T77" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U77" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V77" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W77" t="n">
         <v>32.3933</v>
@@ -22067,74 +20837,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F78" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G78" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H78" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I78" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J78" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K78" t="n">
         <v>31.435</v>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L78" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M78" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N78" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O78" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P78" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q78" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R78" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S78" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T78" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U78" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V78" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W78" t="n">
         <v>32.3933</v>
@@ -22166,74 +20918,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F79" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G79" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H79" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I79" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J79" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K79" t="n">
         <v>31.435</v>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L79" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M79" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N79" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O79" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P79" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q79" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R79" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S79" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T79" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U79" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V79" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W79" t="n">
         <v>32.3933</v>
@@ -22265,74 +20999,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F80" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G80" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H80" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I80" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J80" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K80" t="n">
         <v>31.435</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L80" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M80" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N80" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O80" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P80" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q80" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R80" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S80" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T80" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U80" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V80" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W80" t="n">
         <v>32.3933</v>
@@ -22364,74 +21080,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F81" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G81" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H81" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I81" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J81" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K81" t="n">
         <v>31.435</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L81" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M81" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N81" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O81" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P81" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q81" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R81" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S81" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T81" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U81" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V81" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W81" t="n">
         <v>32.3933</v>
@@ -22463,74 +21161,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F82" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G82" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H82" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I82" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J82" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K82" t="n">
         <v>31.435</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L82" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M82" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N82" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O82" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P82" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q82" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R82" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S82" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T82" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U82" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V82" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W82" t="n">
         <v>32.3933</v>
@@ -22562,74 +21242,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F83" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G83" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H83" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I83" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J83" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K83" t="n">
         <v>31.435</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L83" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M83" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N83" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O83" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P83" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q83" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R83" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S83" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T83" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U83" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V83" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W83" t="n">
         <v>32.3933</v>
@@ -22661,74 +21323,56 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F84" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G84" t="n">
         <v>31.5956</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="H84" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I84" t="n">
         <v>31.8614</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J84" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K84" t="n">
         <v>31.435</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L84" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M84" t="n">
         <v>31.3992</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N84" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O84" t="n">
         <v>31.8261</v>
       </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P84" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q84" t="n">
         <v>31.6666</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="R84" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S84" t="n">
         <v>32.1934</v>
       </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="T84" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U84" t="n">
         <v>32.6829</v>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="V84" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W84" t="n">
         <v>32.3933</v>

--- a/FuseLinks/Trifasico_RF_2.xlsx
+++ b/FuseLinks/Trifasico_RF_2.xlsx
@@ -1468,77 +1468,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F13" t="n">
+        <v>10.3086</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25385</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.1332</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29864</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.0805</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31234</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.2136</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27797</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.2676</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26421</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10.0411</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.32261</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.45285</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16647</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.27869</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.238759999999999</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.49445</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>8.149570000000001</v>
       </c>
     </row>
     <row r="14">
@@ -2458,77 +2440,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F25" t="n">
+        <v>6.12037</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.794930000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.0043</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85929</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.96462</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881729999999999</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.05411</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.83145</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.09491</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80889</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.94036</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89555</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.49557</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.90943</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4.40318</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99067</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.5063</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>9.90016</v>
       </c>
     </row>
     <row r="26">
@@ -3448,77 +3412,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F37" t="n">
+        <v>5.31035</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.286860000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.20644</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.358090000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.16951</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.38392</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.25003</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.327959999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.28806</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301970000000001</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.1483</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398870000000001</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.91491</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4665</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.83768</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5499</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.92071</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>10.4603</v>
       </c>
     </row>
     <row r="38">
@@ -4438,77 +4384,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F49" t="n">
+        <v>3.88228</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6356</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.83629</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.7222</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.87325</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6525</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.8918</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6179</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.85449</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6878</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.84558</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.7046</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.43624</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.5492</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.36812</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.705</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.42692</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>16.5703</v>
       </c>
     </row>
     <row r="50">
@@ -5428,77 +5356,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F61" t="n">
+        <v>2.1537</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.6557</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.12777</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7761</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.16295</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.6132</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.1687</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.587</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.13334</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.75</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.14241</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7078</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.9975</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4161</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.95257</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6517</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.98624</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>21.4744</v>
       </c>
     </row>
     <row r="62">
@@ -6418,77 +6328,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F73" t="n">
+        <v>1.97369</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5399</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.94876</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.672</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.98221</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4954</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.98787</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4659</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.95423</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6428</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.96258</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5985</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.83127</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.3304</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.78896</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.5833</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.81981</v>
       </c>
       <c r="W73" t="n">
-        <v>2</v>
+        <v>22.398</v>
       </c>
     </row>
     <row r="74">
@@ -7408,77 +7300,59 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F85" t="n">
+        <v>0.968298</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.5957</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.948388</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.8615</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.9806280000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.4351</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.983407</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.3993</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.951</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.8262</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.962924</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.6667</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.924376</v>
       </c>
       <c r="S85" t="n">
-        <v>3</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>32.1929</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.890489</v>
       </c>
       <c r="U85" t="n">
-        <v>3</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>32.6825</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.910313</v>
       </c>
       <c r="W85" t="n">
-        <v>3</v>
+        <v>32.3929</v>
       </c>
     </row>
     <row r="86">
@@ -8398,77 +8272,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F97" t="n">
+        <v>0.546607</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.1675</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.531996</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5883</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.555558</v>
       </c>
       <c r="K97" t="n">
-        <v>5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.918</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.557694</v>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.8594</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.533961</v>
       </c>
       <c r="O97" t="n">
-        <v>5</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5307</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.542517</v>
       </c>
       <c r="Q97" t="n">
-        <v>5</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.2835</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.530677</v>
       </c>
       <c r="S97" t="n">
-        <v>5</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.6272</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.506896</v>
       </c>
       <c r="U97" t="n">
-        <v>5</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>40.354</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.518913</v>
       </c>
       <c r="W97" t="n">
-        <v>5</v>
+        <v>39.9803</v>
       </c>
     </row>
     <row r="98">
@@ -9388,77 +9244,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F109" t="n">
+        <v>0.4451704</v>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.50949</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4323537</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.015</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.4527301</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.22161</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.4547187</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.14709</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.434173</v>
       </c>
       <c r="O109" t="n">
-        <v>5</v>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.94186</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.4413739</v>
       </c>
       <c r="Q109" t="n">
-        <v>5</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.6569</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.4351476</v>
       </c>
       <c r="S109" t="n">
-        <v>5</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.90287</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.4147042</v>
       </c>
       <c r="U109" t="n">
-        <v>5</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.74977</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.4244053</v>
       </c>
       <c r="W109" t="n">
-        <v>5</v>
+        <v>43.34013</v>
       </c>
     </row>
     <row r="110">
@@ -10378,77 +10216,59 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F121" t="n">
+        <v>0.2181468</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.07297</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2143222</v>
       </c>
       <c r="I121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.8458</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2200518</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.69615</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.2207446</v>
       </c>
       <c r="M121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.56046</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.2149712</v>
       </c>
       <c r="O121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.71312</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.2168081</v>
       </c>
       <c r="Q121" t="n">
-        <v>6</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.341</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.2170947</v>
       </c>
       <c r="S121" t="n">
-        <v>6</v>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.28338</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.2112657</v>
       </c>
       <c r="U121" t="n">
-        <v>6</v>
-      </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>52.47913</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.2136329</v>
       </c>
       <c r="W121" t="n">
-        <v>6</v>
+        <v>51.9874</v>
       </c>
     </row>
     <row r="122">
@@ -11368,77 +11188,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F133" t="n">
+        <v>0.3973408</v>
       </c>
       <c r="G133" t="n">
-        <v>10</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.84666</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.3855971</v>
       </c>
       <c r="I133" t="n">
-        <v>10</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.97648</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4021747</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.40573</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.4048243</v>
       </c>
       <c r="M133" t="n">
-        <v>10</v>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.16968</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.3879159</v>
       </c>
       <c r="O133" t="n">
-        <v>10</v>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.74652</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.3923938</v>
       </c>
       <c r="Q133" t="n">
-        <v>10</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.31217</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.3972462</v>
       </c>
       <c r="S133" t="n">
-        <v>10</v>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.85542</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.3807829</v>
       </c>
       <c r="U133" t="n">
-        <v>10</v>
-      </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>61.46521</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0.3861901</v>
       </c>
       <c r="W133" t="n">
-        <v>10</v>
+        <v>60.91734</v>
       </c>
     </row>
     <row r="134">
@@ -12358,77 +12160,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F145" t="n">
+        <v>0.3632391</v>
       </c>
       <c r="G145" t="n">
-        <v>10</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.38594</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.3524631</v>
       </c>
       <c r="I145" t="n">
-        <v>10</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.68585</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.3672094</v>
       </c>
       <c r="K145" t="n">
-        <v>10</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.93098</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.3697935</v>
       </c>
       <c r="M145" t="n">
-        <v>10</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.64146</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.3547297</v>
       </c>
       <c r="O145" t="n">
-        <v>10</v>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.40422</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.3584091</v>
       </c>
       <c r="Q145" t="n">
-        <v>10</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.9565</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.3638849</v>
       </c>
       <c r="S145" t="n">
-        <v>10</v>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.31108</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.3491757</v>
       </c>
       <c r="U145" t="n">
-        <v>10</v>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.1024</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.353601</v>
       </c>
       <c r="W145" t="n">
-        <v>10</v>
+        <v>64.54389</v>
       </c>
     </row>
     <row r="146">
@@ -13348,77 +13132,59 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F157" t="n">
+        <v>0.5511246</v>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.48548</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5266025</v>
       </c>
       <c r="I157" t="n">
-        <v>12</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.94745</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.559396</v>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.0254</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.5657545</v>
       </c>
       <c r="M157" t="n">
-        <v>12</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.68213</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.5319734</v>
       </c>
       <c r="O157" t="n">
-        <v>12</v>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.61394</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.5394639</v>
       </c>
       <c r="Q157" t="n">
-        <v>12</v>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.16159</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.5537625</v>
       </c>
       <c r="S157" t="n">
-        <v>12</v>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.33705</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.5211616999999999</v>
       </c>
       <c r="U157" t="n">
-        <v>12</v>
-      </c>
-      <c r="V157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>68.29344</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0.5300443</v>
       </c>
       <c r="W157" t="n">
-        <v>12</v>
+        <v>67.73283000000001</v>
       </c>
     </row>
     <row r="158">
@@ -14338,77 +14104,59 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F169" t="n">
+        <v>0.8224342</v>
       </c>
       <c r="G169" t="n">
-        <v>15</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.63757</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.7692658</v>
       </c>
       <c r="I169" t="n">
-        <v>15</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.39725</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8372946999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>15</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.18653999999999</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.8526133</v>
       </c>
       <c r="M169" t="n">
-        <v>15</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>70.73824999999999</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.7817323</v>
       </c>
       <c r="O169" t="n">
-        <v>15</v>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.96253</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.7948672</v>
       </c>
       <c r="Q169" t="n">
-        <v>15</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.51974</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.831269</v>
       </c>
       <c r="S169" t="n">
-        <v>15</v>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.36745000000001</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0.7633307</v>
       </c>
       <c r="U169" t="n">
-        <v>15</v>
-      </c>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.60938</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0.7788192</v>
       </c>
       <c r="W169" t="n">
-        <v>15</v>
+        <v>73.06282</v>
       </c>
     </row>
   </sheetData>
@@ -15464,77 +15212,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F13" t="n">
+        <v>10.3102</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.25346</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.1348</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.29822</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.082</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.31194</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.2151</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.27759</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.2693</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.26379</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10.0427</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>7.3222</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.45189</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.16686</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.27774</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.23917</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.49347</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>8.14996</v>
       </c>
     </row>
     <row r="14">
@@ -16454,77 +16184,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F25" t="n">
+        <v>6.12136</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.79438</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.00534</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.85871</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.96558</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.881180000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.05506</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.830920000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.09594</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.80832</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.94135</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>8.89498</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.4951</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.909829999999999</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4.40272</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.99108</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.50583</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>9.90056</v>
       </c>
     </row>
     <row r="26">
@@ -17444,77 +17156,59 @@
           <t>1H</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F37" t="n">
+        <v>5.31123</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.28627</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.20736</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.35745</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.17035</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.383330000000001</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.25087</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.32738</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.28897</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.301349999999999</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.14918</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>9.398250000000001</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.91453</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.4669</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.83731</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>10.5503</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.92033</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>10.4607</v>
       </c>
     </row>
     <row r="38">
@@ -18434,77 +18128,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F49" t="n">
+        <v>3.88245</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6353</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.83646</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.7219</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.87341</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6522</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3.89196</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6176</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.85466</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.6874</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.84575</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>15.7042</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3.43605</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.5496</v>
+      </c>
+      <c r="T49" t="n">
+        <v>3.36793</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>16.7055</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.42673</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>16.5707</v>
       </c>
     </row>
     <row r="50">
@@ -19424,77 +19100,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F61" t="n">
+        <v>2.15375</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.6555</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.12782</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7758</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.163</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.613</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2.16875</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.5868</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.13338</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7498</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.14246</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20.7076</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.99742</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4165</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.95249</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6521</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.98616</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
+        <v>21.4748</v>
       </c>
     </row>
     <row r="62">
@@ -20414,77 +20072,59 @@
           <t>2H</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F73" t="n">
+        <v>1.97373</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5397</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.9488</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6718</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.98226</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4951</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.98791</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.4657</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.95427</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6426</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.96263</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.5982</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.8312</v>
       </c>
       <c r="S73" t="n">
-        <v>2</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.3309</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.78889</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>22.5837</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.81974</v>
       </c>
       <c r="W73" t="n">
-        <v>2</v>
+        <v>22.3985</v>
       </c>
     </row>
     <row r="74">
@@ -21404,77 +21044,59 @@
           <t>3H</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F85" t="n">
+        <v>0.968306</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.5956</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.948397</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.8614</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.980637</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.435</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.983415</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.3992</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.951008</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.8261</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.962933</v>
       </c>
       <c r="Q85" t="n">
-        <v>3</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>31.6666</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.924345</v>
       </c>
       <c r="S85" t="n">
-        <v>3</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>32.1934</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.890459</v>
       </c>
       <c r="U85" t="n">
-        <v>3</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>32.6829</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.910282</v>
       </c>
       <c r="W85" t="n">
-        <v>3</v>
+        <v>32.3933</v>
       </c>
     </row>
     <row r="86">
@@ -22394,77 +22016,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F97" t="n">
+        <v>0.546609</v>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.1674</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.531998</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5883</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.555561</v>
       </c>
       <c r="K97" t="n">
-        <v>5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.918</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.557697</v>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>38.8593</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.533963</v>
       </c>
       <c r="O97" t="n">
-        <v>5</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.5306</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.54252</v>
       </c>
       <c r="Q97" t="n">
-        <v>5</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.2835</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.530662</v>
       </c>
       <c r="S97" t="n">
-        <v>5</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>39.6276</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.506881</v>
       </c>
       <c r="U97" t="n">
-        <v>5</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>40.3544</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.518899</v>
       </c>
       <c r="W97" t="n">
-        <v>5</v>
+        <v>39.9808</v>
       </c>
     </row>
     <row r="98">
@@ -23384,77 +22988,59 @@
           <t>5H</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F109" t="n">
+        <v>0.4451715</v>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.50945</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.432355</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.01495</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.4527314</v>
       </c>
       <c r="K109" t="n">
-        <v>5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.22156</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.4547199</v>
       </c>
       <c r="M109" t="n">
-        <v>5</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.14705</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.4341742</v>
       </c>
       <c r="O109" t="n">
-        <v>5</v>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.94181</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.4413753</v>
       </c>
       <c r="Q109" t="n">
-        <v>5</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.65684</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.4351366</v>
       </c>
       <c r="S109" t="n">
-        <v>5</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>42.90331</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.4146938</v>
       </c>
       <c r="U109" t="n">
-        <v>5</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>43.75022</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.4243948</v>
       </c>
       <c r="W109" t="n">
-        <v>5</v>
+        <v>43.34057</v>
       </c>
     </row>
     <row r="110">
@@ -24374,77 +23960,59 @@
           <t>6K</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F121" t="n">
+        <v>0.2181468</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.07296</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.2143223</v>
       </c>
       <c r="I121" t="n">
-        <v>6</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.84578</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2200519</v>
       </c>
       <c r="K121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.69614</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.2207447</v>
       </c>
       <c r="M121" t="n">
-        <v>6</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50.56045</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.2149713</v>
       </c>
       <c r="O121" t="n">
-        <v>6</v>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.71311</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.2168082</v>
       </c>
       <c r="Q121" t="n">
-        <v>6</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.34098</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0.2170926</v>
       </c>
       <c r="S121" t="n">
-        <v>6</v>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>51.2838</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.2112637</v>
       </c>
       <c r="U121" t="n">
-        <v>6</v>
-      </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>52.47956</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.2136309</v>
       </c>
       <c r="W121" t="n">
-        <v>6</v>
+        <v>51.98782</v>
       </c>
     </row>
     <row r="122">
@@ -25364,77 +24932,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F133" t="n">
+        <v>0.3973406</v>
       </c>
       <c r="G133" t="n">
-        <v>10</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.84668</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.3855969</v>
       </c>
       <c r="I133" t="n">
-        <v>10</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.97649</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.4021746</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.40574</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.4048242</v>
       </c>
       <c r="M133" t="n">
-        <v>10</v>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.16969</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.3879158</v>
       </c>
       <c r="O133" t="n">
-        <v>10</v>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.74654</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.3923937</v>
       </c>
       <c r="Q133" t="n">
-        <v>10</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60.31218</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0.397242</v>
       </c>
       <c r="S133" t="n">
-        <v>10</v>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>59.85581</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.380779</v>
       </c>
       <c r="U133" t="n">
-        <v>10</v>
-      </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>61.46562</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0.3861861</v>
       </c>
       <c r="W133" t="n">
-        <v>10</v>
+        <v>60.91773</v>
       </c>
     </row>
     <row r="134">
@@ -26354,77 +25904,59 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F145" t="n">
+        <v>0.3632389</v>
       </c>
       <c r="G145" t="n">
-        <v>10</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.38596</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.3524629</v>
       </c>
       <c r="I145" t="n">
-        <v>10</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.68586999999999</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.3672093</v>
       </c>
       <c r="K145" t="n">
-        <v>10</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.931</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.3697933</v>
       </c>
       <c r="M145" t="n">
-        <v>10</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>62.64148</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.3547295</v>
       </c>
       <c r="O145" t="n">
-        <v>10</v>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>64.40424</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.3584089</v>
       </c>
       <c r="Q145" t="n">
-        <v>10</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.95652</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0.3638817</v>
       </c>
       <c r="S145" t="n">
-        <v>10</v>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63.31145</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0.3491726</v>
       </c>
       <c r="U145" t="n">
-        <v>10</v>
-      </c>
-      <c r="V145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.10279</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.353598</v>
       </c>
       <c r="W145" t="n">
-        <v>10</v>
+        <v>64.54427</v>
       </c>
     </row>
     <row r="146">
@@ -27344,77 +26876,59 @@
           <t>12K</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F157" t="n">
+        <v>0.5511242</v>
       </c>
       <c r="G157" t="n">
-        <v>12</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.4855</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5266021</v>
       </c>
       <c r="I157" t="n">
-        <v>12</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.94748</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.5593957000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.02542</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.565754</v>
       </c>
       <c r="M157" t="n">
-        <v>12</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>65.68214999999999</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.5319729</v>
       </c>
       <c r="O157" t="n">
-        <v>12</v>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.61396999999999</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.5394636</v>
       </c>
       <c r="Q157" t="n">
-        <v>12</v>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>67.16161</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.5537561</v>
       </c>
       <c r="S157" t="n">
-        <v>12</v>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>66.3374</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0.521156</v>
       </c>
       <c r="U157" t="n">
-        <v>12</v>
-      </c>
-      <c r="V157" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>68.29382</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0.5300385</v>
       </c>
       <c r="W157" t="n">
-        <v>12</v>
+        <v>67.73318999999999</v>
       </c>
     </row>
     <row r="158">
@@ -28334,77 +27848,59 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="F169" t="n">
+        <v>0.8224332</v>
       </c>
       <c r="G169" t="n">
-        <v>15</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.63760000000001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.769265</v>
       </c>
       <c r="I169" t="n">
-        <v>15</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.39727000000001</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8372938</v>
       </c>
       <c r="K169" t="n">
-        <v>15</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.18657</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.8526123</v>
       </c>
       <c r="M169" t="n">
-        <v>15</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>70.73827</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.7817314</v>
       </c>
       <c r="O169" t="n">
-        <v>15</v>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.96256</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.7948664</v>
       </c>
       <c r="Q169" t="n">
-        <v>15</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>72.51976999999999</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.8312583</v>
       </c>
       <c r="S169" t="n">
-        <v>15</v>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>71.36778</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0.7633213</v>
       </c>
       <c r="U169" t="n">
-        <v>15</v>
-      </c>
-      <c r="V169" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>73.60972</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0.7788096</v>
       </c>
       <c r="W169" t="n">
-        <v>15</v>
+        <v>73.06314999999999</v>
       </c>
     </row>
   </sheetData>
